--- a/meal_data.xlsx
+++ b/meal_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15190" windowHeight="6690"/>
+    <workbookView windowWidth="14850" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="232">
   <si>
     <t>item_name</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Trick OR Treat Ice Cream</t>
   </si>
   <si>
-    <t>soup</t>
+    <t>Soup</t>
   </si>
   <si>
     <t>cream</t>
@@ -134,7 +134,7 @@
     <t>Sweet Fries Snack</t>
   </si>
   <si>
-    <t>side</t>
+    <t>Side</t>
   </si>
   <si>
     <t>fried</t>
@@ -155,7 +155,7 @@
     <t>Chicken BBQ Caesar Salad EntrÌ©e</t>
   </si>
   <si>
-    <t>main dish</t>
+    <t>Main dish</t>
   </si>
   <si>
     <t>poultry</t>
@@ -176,7 +176,7 @@
     <t>Mango Cake</t>
   </si>
   <si>
-    <t>dessert</t>
+    <t>Dessert</t>
   </si>
   <si>
     <t>cake</t>
@@ -365,7 +365,7 @@
     <t>The health nut Sandwich</t>
   </si>
   <si>
-    <t>breakfast</t>
+    <t>Breakfast</t>
   </si>
   <si>
     <t>toast</t>
@@ -533,9 +533,6 @@
     <t>breakfast pizza</t>
   </si>
   <si>
-    <t>Breakfast</t>
-  </si>
-  <si>
     <t>breakfast burrito</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
     <t>egg sunny side up</t>
   </si>
   <si>
-    <t>Side</t>
-  </si>
-  <si>
     <t>egg</t>
   </si>
   <si>
@@ -648,9 +642,6 @@
   </si>
   <si>
     <t>Ziti Pasta</t>
-  </si>
-  <si>
-    <t>Main dish</t>
   </si>
   <si>
     <t>Spinach Pasta</t>
@@ -1767,13 +1758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1960,11 +1951,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" ht="15.5" hidden="1" spans="1:28">
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
@@ -2043,11 +2034,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" ht="15.5" hidden="1" spans="1:28">
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
@@ -2126,11 +2117,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" hidden="1" spans="1:28">
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
@@ -2209,11 +2200,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" ht="15.5" hidden="1" spans="1:28">
       <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
@@ -2292,7 +2283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" hidden="1" spans="1:28">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2375,11 +2366,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="15.5" hidden="1" spans="1:28">
       <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
@@ -2458,11 +2449,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" ht="15.5" hidden="1" spans="1:28">
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
@@ -2541,11 +2532,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="15.5" hidden="1" spans="1:28">
       <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
@@ -2624,11 +2615,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" ht="15.5" hidden="1" spans="1:28">
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
@@ -2707,11 +2698,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" ht="15.5" hidden="1" spans="1:28">
       <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
@@ -2790,11 +2781,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" hidden="1" spans="1:28">
       <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
@@ -2873,7 +2864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" hidden="1" spans="1:28">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2956,11 +2947,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" ht="15.5" hidden="1" spans="1:28">
       <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
@@ -3039,11 +3030,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" ht="15.5" hidden="1" spans="1:28">
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
@@ -3122,11 +3113,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" hidden="1" spans="1:28">
       <c r="A17" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="s">
@@ -3205,11 +3196,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" hidden="1" spans="1:28">
       <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="s">
@@ -3288,11 +3279,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" hidden="1" spans="1:28">
       <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
@@ -3371,11 +3362,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" hidden="1" spans="1:28">
       <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
@@ -3454,11 +3445,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" hidden="1" spans="1:28">
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
@@ -3537,11 +3528,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" hidden="1" spans="1:28">
       <c r="A22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
@@ -3620,7 +3611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" hidden="1" spans="1:28">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3703,11 +3694,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" hidden="1" spans="1:28">
       <c r="A24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
@@ -3786,11 +3777,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" hidden="1" spans="1:28">
       <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
@@ -3869,7 +3860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" hidden="1" spans="1:28">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -3952,11 +3943,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" hidden="1" spans="1:28">
       <c r="A27" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="s">
@@ -4035,11 +4026,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" hidden="1" spans="1:28">
       <c r="A28" t="s">
         <v>91</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
@@ -4118,11 +4109,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" hidden="1" spans="1:28">
       <c r="A29" t="s">
         <v>92</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C29" t="s">
@@ -4201,11 +4192,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" hidden="1" spans="1:28">
       <c r="A30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
@@ -4284,11 +4275,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" hidden="1" spans="1:28">
       <c r="A31" t="s">
         <v>95</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C31" t="s">
@@ -4367,11 +4358,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" hidden="1" spans="1:28">
       <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C32" t="s">
@@ -4450,11 +4441,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" ht="15.5" hidden="1" spans="1:28">
       <c r="A33" t="s">
         <v>100</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
@@ -4533,11 +4524,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" hidden="1" spans="1:28">
       <c r="A34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C34" t="s">
@@ -4616,11 +4607,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" hidden="1" spans="1:28">
       <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
@@ -4699,11 +4690,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="15.5" hidden="1" spans="1:28">
       <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
@@ -4782,11 +4773,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" hidden="1" spans="1:28">
       <c r="A37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
@@ -4865,11 +4856,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" hidden="1" spans="1:28">
       <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
@@ -4948,11 +4939,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" ht="15.5" hidden="1" spans="1:28">
       <c r="A39" t="s">
         <v>109</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C39" t="s">
@@ -5031,7 +5022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" hidden="1" spans="1:28">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -5114,11 +5105,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" hidden="1" spans="1:28">
       <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
@@ -5197,11 +5188,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" hidden="1" spans="1:28">
       <c r="A42" t="s">
         <v>115</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C42" t="s">
@@ -5280,7 +5271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" hidden="1" spans="1:28">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -5363,11 +5354,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" ht="15.5" hidden="1" spans="1:28">
       <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C44" t="s">
@@ -5446,11 +5437,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" hidden="1" spans="1:28">
       <c r="A45" t="s">
         <v>118</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C45" t="s">
@@ -5529,11 +5520,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" hidden="1" spans="1:28">
       <c r="A46" t="s">
         <v>119</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C46" t="s">
@@ -5612,7 +5603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" hidden="1" spans="1:28">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -5695,11 +5686,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" ht="15.5" hidden="1" spans="1:28">
       <c r="A48" t="s">
         <v>121</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C48" t="s">
@@ -5778,7 +5769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" hidden="1" spans="1:28">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -5861,11 +5852,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" hidden="1" spans="1:28">
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C50" t="s">
@@ -5944,11 +5935,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="15.5" hidden="1" spans="1:28">
       <c r="A51" t="s">
         <v>126</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C51" t="s">
@@ -6027,11 +6018,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" hidden="1" spans="1:28">
       <c r="A52" t="s">
         <v>128</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C52" t="s">
@@ -6110,11 +6101,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="15.5" hidden="1" spans="1:28">
       <c r="A53" t="s">
         <v>129</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C53" t="s">
@@ -6193,11 +6184,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" hidden="1" spans="1:28">
       <c r="A54" t="s">
         <v>131</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
@@ -6276,11 +6267,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="15.5" hidden="1" spans="1:28">
       <c r="A55" t="s">
         <v>132</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C55" t="s">
@@ -6359,7 +6350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" hidden="1" spans="1:28">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -6442,11 +6433,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="15.5" hidden="1" spans="1:28">
       <c r="A57" t="s">
         <v>134</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C57" t="s">
@@ -6525,7 +6516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" hidden="1" spans="1:28">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -6608,7 +6599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" hidden="1" spans="1:28">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -6691,11 +6682,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="15.5" hidden="1" spans="1:28">
       <c r="A60" t="s">
         <v>138</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C60" t="s">
@@ -6774,11 +6765,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" hidden="1" spans="1:28">
       <c r="A61" t="s">
         <v>139</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C61" t="s">
@@ -6857,11 +6848,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="15.5" hidden="1" spans="1:28">
       <c r="A62" t="s">
         <v>141</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C62" t="s">
@@ -6940,11 +6931,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="15.5" hidden="1" spans="1:28">
       <c r="A63" t="s">
         <v>142</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C63" t="s">
@@ -7023,11 +7014,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" hidden="1" spans="1:28">
       <c r="A64" t="s">
         <v>143</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C64" t="s">
@@ -7106,11 +7097,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="15.5" hidden="1" spans="1:28">
       <c r="A65" t="s">
         <v>144</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C65" t="s">
@@ -7189,11 +7180,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" hidden="1" spans="1:28">
       <c r="A66" t="s">
         <v>145</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C66" t="s">
@@ -7272,11 +7263,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="15.5" hidden="1" spans="1:28">
       <c r="A67" t="s">
         <v>146</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C67" t="s">
@@ -7355,11 +7346,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" hidden="1" spans="1:28">
       <c r="A68" t="s">
         <v>147</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C68" t="s">
@@ -7438,11 +7429,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" hidden="1" spans="1:28">
       <c r="A69" t="s">
         <v>149</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C69" t="s">
@@ -7521,11 +7512,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="15.5" hidden="1" spans="1:28">
       <c r="A70" t="s">
         <v>150</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C70" t="s">
@@ -7604,11 +7595,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="15.5" hidden="1" spans="1:28">
       <c r="A71" t="s">
         <v>151</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C71" t="s">
@@ -7687,7 +7678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" hidden="1" spans="1:23">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -7740,7 +7731,7 @@
         <v>364.9</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" hidden="1" spans="1:23">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -7799,7 +7790,7 @@
         <v>266.6</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" hidden="1" spans="1:23">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -7858,7 +7849,7 @@
         <v>644.7</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" hidden="1" spans="1:23">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -7917,7 +7908,7 @@
         <v>208.2</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" hidden="1" spans="1:23">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -7976,7 +7967,7 @@
         <v>1156.3</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" hidden="1" spans="1:23">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -8023,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" hidden="1" spans="1:18">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -8067,7 +8058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" hidden="1" spans="1:18">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -8111,7 +8102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" hidden="1" spans="1:18">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -8155,7 +8146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" hidden="1" spans="1:18">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -8199,7 +8190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" hidden="1" spans="1:18">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -8243,7 +8234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" hidden="1" spans="1:18">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -8287,12 +8278,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" hidden="1" spans="1:23">
       <c r="A84" t="s">
         <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
         <v>112</v>
@@ -8346,15 +8337,15 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" hidden="1" spans="1:23">
       <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" t="s">
-        <v>169</v>
       </c>
       <c r="E85" s="1">
         <v>2.37</v>
@@ -8405,15 +8396,15 @@
         <v>835.5</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" hidden="1" spans="1:18">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E86" s="1">
         <v>3.75</v>
@@ -8452,15 +8443,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" hidden="1" spans="1:23">
       <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
         <v>171</v>
-      </c>
-      <c r="B87" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" t="s">
-        <v>172</v>
       </c>
       <c r="E87" s="1">
         <v>4.28</v>
@@ -8511,15 +8502,15 @@
         <v>863.7</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" hidden="1" spans="1:23">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E88" s="1">
         <v>2.88</v>
@@ -8570,15 +8561,15 @@
         <v>446.4</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" hidden="1" spans="1:23">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E89" s="1">
         <v>3.93</v>
@@ -8629,15 +8620,15 @@
         <v>318.9</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" hidden="1" spans="1:23">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E90" s="1">
         <v>3.04</v>
@@ -8688,12 +8679,12 @@
         <v>405.9</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" hidden="1" spans="1:23">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
         <v>112</v>
@@ -8747,15 +8738,15 @@
         <v>390.6</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" hidden="1" spans="1:23">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E92" s="1">
         <v>3.42</v>
@@ -8806,15 +8797,15 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="93" ht="15.5" spans="1:23">
+    <row r="93" ht="15.5" hidden="1" spans="1:23">
       <c r="A93" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="E93" s="1">
         <v>0.76</v>
@@ -8865,12 +8856,12 @@
         <v>69.9</v>
       </c>
     </row>
-    <row r="94" ht="15.5" spans="1:23">
+    <row r="94" ht="15.5" hidden="1" spans="1:23">
       <c r="A94" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>101</v>
@@ -8924,12 +8915,12 @@
         <v>184.4</v>
       </c>
     </row>
-    <row r="95" ht="15.5" spans="1:23">
+    <row r="95" ht="15.5" hidden="1" spans="1:23">
       <c r="A95" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>35</v>
@@ -8983,12 +8974,12 @@
         <v>677.4</v>
       </c>
     </row>
-    <row r="96" ht="15.5" spans="1:23">
+    <row r="96" ht="15.5" hidden="1" spans="1:23">
       <c r="A96" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>58</v>
@@ -9030,12 +9021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15.5" spans="1:23">
+    <row r="97" ht="15.5" hidden="1" spans="1:23">
       <c r="A97" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>35</v>
@@ -9089,15 +9080,15 @@
         <v>390.6</v>
       </c>
     </row>
-    <row r="98" ht="15.5" spans="1:23">
+    <row r="98" ht="15.5" hidden="1" spans="1:23">
       <c r="A98" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E98" s="1">
         <v>2.79</v>
@@ -9148,12 +9139,12 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="99" ht="15.5" spans="1:23">
+    <row r="99" ht="15.5" hidden="1" spans="1:23">
       <c r="A99" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>101</v>
@@ -9207,12 +9198,12 @@
         <v>546.7</v>
       </c>
     </row>
-    <row r="100" ht="15.5" spans="1:23">
+    <row r="100" ht="15.5" hidden="1" spans="1:23">
       <c r="A100" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>52</v>
@@ -9266,12 +9257,12 @@
         <v>270.8</v>
       </c>
     </row>
-    <row r="101" ht="15.5" spans="1:27">
+    <row r="101" ht="15.5" hidden="1" spans="1:27">
       <c r="A101" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>58</v>
@@ -9340,13 +9331,13 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B102" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E102" s="1">
         <v>6.17</v>
@@ -9402,13 +9393,13 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B103" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
         <v>29</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E103" s="1">
         <v>3.9</v>
@@ -9472,13 +9463,13 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E104" s="1">
         <v>2.04</v>
@@ -9542,13 +9533,13 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B105" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E105" s="1">
         <v>3.73</v>
@@ -9606,13 +9597,13 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" t="s">
         <v>29</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E106" s="1">
         <v>3.55</v>
@@ -9676,13 +9667,13 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E107" s="1">
         <v>2.14</v>
@@ -9744,13 +9735,13 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B108" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" t="s">
         <v>29</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E108" s="1">
         <v>8.63</v>
@@ -9810,13 +9801,13 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B109" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" t="s">
         <v>29</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E109" s="1">
         <v>3.7</v>
@@ -9880,13 +9871,13 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B110" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E110" s="1">
         <v>2.38</v>
@@ -9950,13 +9941,13 @@
     </row>
     <row r="111" spans="1:27">
       <c r="A111" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B111" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
         <v>29</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E111" s="1">
         <v>5.47</v>
@@ -10014,12 +10005,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" hidden="1" spans="1:27">
       <c r="A112" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
         <v>107</v>
@@ -10082,12 +10073,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" hidden="1" spans="1:27">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
         <v>107</v>
@@ -10146,12 +10137,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" hidden="1" spans="1:27">
       <c r="A114" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
         <v>94</v>
@@ -10214,12 +10205,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" hidden="1" spans="1:27">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
         <v>42</v>
@@ -10284,12 +10275,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" hidden="1" spans="1:28">
       <c r="A116" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
         <v>107</v>
@@ -10358,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="Z116" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA116" s="8">
         <v>200</v>
@@ -10367,12 +10358,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" hidden="1" spans="1:28">
       <c r="A117" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
         <v>107</v>
@@ -10441,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="Z117" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA117" s="10">
         <v>150</v>
@@ -10450,12 +10441,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" hidden="1" spans="1:28">
       <c r="A118" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
         <v>107</v>
@@ -10524,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="Z118" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA118" s="10">
         <v>180</v>
@@ -10533,12 +10524,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" hidden="1" spans="1:28">
       <c r="A119" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
         <v>94</v>
@@ -10616,12 +10607,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" hidden="1" spans="1:28">
       <c r="A120" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
         <v>94</v>
@@ -10699,12 +10690,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" hidden="1" spans="1:28">
       <c r="A121" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
         <v>96</v>
@@ -10773,7 +10764,7 @@
         <v>1</v>
       </c>
       <c r="Z121" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AA121" s="10">
         <v>250</v>
@@ -10782,12 +10773,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" hidden="1" spans="1:28">
       <c r="A122" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
         <v>96</v>
@@ -10856,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="Z122" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AA122" s="10">
         <v>100</v>
@@ -10865,12 +10856,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" hidden="1" spans="1:28">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
         <v>96</v>
@@ -10939,7 +10930,7 @@
         <v>2</v>
       </c>
       <c r="Z123" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AA123" s="10">
         <v>30</v>
@@ -10948,12 +10939,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" hidden="1" spans="1:28">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
         <v>96</v>
@@ -11031,12 +11022,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" hidden="1" spans="1:28">
       <c r="A125" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
         <v>96</v>
@@ -11105,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="Z125" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AA125" s="10">
         <v>120</v>
@@ -11114,12 +11105,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" hidden="1" spans="1:28">
       <c r="A126" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
         <v>75</v>
@@ -11188,7 +11179,7 @@
         <v>4</v>
       </c>
       <c r="Z126" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AA126" s="10">
         <v>120</v>
@@ -11197,12 +11188,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" hidden="1" spans="1:28">
       <c r="A127" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
         <v>80</v>
@@ -11271,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="Z127" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AA127" s="10">
         <v>50</v>
@@ -11280,12 +11271,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" hidden="1" spans="1:28">
       <c r="A128" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
         <v>107</v>
@@ -11354,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="Z128" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AA128" s="10">
         <v>300</v>
@@ -11363,12 +11354,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" hidden="1" spans="1:28">
       <c r="A129" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C129" t="s">
         <v>75</v>
@@ -11437,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="Z129" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AA129" s="10">
         <v>250</v>
@@ -11446,12 +11437,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" hidden="1" spans="1:28">
       <c r="A130" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C130" t="s">
         <v>75</v>
@@ -11520,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="Z130" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA130" s="10">
         <v>300</v>
@@ -11529,12 +11520,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" hidden="1" spans="1:28">
       <c r="A131" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="C131" t="s">
         <v>75</v>
@@ -11603,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="Z131" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AA131" s="10">
         <v>180</v>
@@ -11614,6 +11605,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB131" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="soup"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meal_data.xlsx
+++ b/meal_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14850" windowHeight="6690"/>
+    <workbookView windowWidth="17900" windowHeight="6860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="232">
   <si>
     <t>item_name</t>
   </si>
@@ -1761,10 +1761,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <selection pane="bottomLeft" activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1868,7 +1868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" hidden="1" spans="1:28">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:28">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2151,8 +2151,8 @@
       <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
+      <c r="M5" s="1">
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>582.6</v>
@@ -2160,8 +2160,8 @@
       <c r="O5" s="2">
         <v>14.8</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>31</v>
+      <c r="P5" s="2">
+        <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>31</v>
@@ -2283,7 +2283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:28">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2317,17 +2317,17 @@
       <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>31</v>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>26</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>31</v>
+      <c r="P7" s="2">
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>20</v>
@@ -2649,8 +2649,8 @@
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>31</v>
+      <c r="M11" s="1">
+        <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>220</v>
@@ -3396,8 +3396,8 @@
       <c r="L20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>31</v>
+      <c r="M20" s="1">
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>430</v>
@@ -3645,8 +3645,8 @@
       <c r="L23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>31</v>
+      <c r="M23" s="1">
+        <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>394</v>
@@ -3777,7 +3777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:28">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -3811,17 +3811,17 @@
       <c r="L25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>31</v>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>31</v>
+      <c r="P25" s="2">
+        <v>0</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>31</v>
@@ -3894,11 +3894,11 @@
       <c r="L26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>31</v>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>47</v>
@@ -4060,8 +4060,8 @@
       <c r="L28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>31</v>
+      <c r="M28" s="1">
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>2460</v>
@@ -4856,7 +4856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:28">
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -4890,8 +4890,8 @@
       <c r="L38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>31</v>
+      <c r="M38" s="1">
+        <v>0</v>
       </c>
       <c r="N38" s="2">
         <v>12</v>
@@ -4899,8 +4899,8 @@
       <c r="O38" s="2">
         <v>0</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>31</v>
+      <c r="P38" s="2">
+        <v>0</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>31</v>
@@ -5271,7 +5271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:28">
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -5305,8 +5305,8 @@
       <c r="L43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>31</v>
+      <c r="M43" s="1">
+        <v>0</v>
       </c>
       <c r="N43" s="2">
         <v>482.4</v>
@@ -5314,8 +5314,8 @@
       <c r="O43" s="2">
         <v>102.3</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>31</v>
+      <c r="P43" s="2">
+        <v>0</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>31</v>
@@ -6052,8 +6052,8 @@
       <c r="L52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>31</v>
+      <c r="M52" s="1">
+        <v>0</v>
       </c>
       <c r="N52" s="2">
         <v>1951</v>
@@ -6350,7 +6350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -6384,17 +6384,17 @@
       <c r="L56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>31</v>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
       </c>
       <c r="O56" s="2">
         <v>26</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>31</v>
+      <c r="P56" s="2">
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
         <v>20</v>
@@ -6716,8 +6716,8 @@
       <c r="L60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>31</v>
+      <c r="M60" s="1">
+        <v>0</v>
       </c>
       <c r="N60" s="2">
         <v>220</v>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="AA101" s="6"/>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" hidden="1" spans="1:27">
       <c r="A102" s="1" t="s">
         <v>188</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" hidden="1" spans="1:27">
       <c r="A103" s="1" t="s">
         <v>190</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" hidden="1" spans="1:27">
       <c r="A104" s="1" t="s">
         <v>191</v>
       </c>
@@ -9570,7 +9570,9 @@
       <c r="O105" s="5">
         <v>20</v>
       </c>
-      <c r="P105" s="5"/>
+      <c r="P105" s="5">
+        <v>0</v>
+      </c>
       <c r="Q105" s="6"/>
       <c r="R105" s="5">
         <v>9.3</v>
@@ -9595,7 +9597,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" hidden="1" spans="1:27">
       <c r="A106" s="1" t="s">
         <v>195</v>
       </c>
@@ -9665,7 +9667,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" hidden="1" spans="1:27">
       <c r="A107" s="1" t="s">
         <v>196</v>
       </c>
@@ -9733,7 +9735,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" hidden="1" spans="1:27">
       <c r="A108" s="1" t="s">
         <v>197</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" hidden="1" spans="1:27">
       <c r="A109" s="1" t="s">
         <v>198</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" hidden="1" spans="1:27">
       <c r="A110" s="1" t="s">
         <v>199</v>
       </c>
@@ -9939,7 +9941,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" hidden="1" spans="1:27">
       <c r="A111" s="1" t="s">
         <v>201</v>
       </c>
@@ -10073,7 +10075,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:27">
+    <row r="113" spans="1:27">
       <c r="A113" s="1" t="s">
         <v>204</v>
       </c>
@@ -10112,7 +10114,9 @@
       <c r="O113" s="5">
         <v>34</v>
       </c>
-      <c r="P113" s="5"/>
+      <c r="P113" s="5">
+        <v>0</v>
+      </c>
       <c r="Q113" s="6"/>
       <c r="R113" s="5">
         <v>6.8</v>
@@ -11605,9 +11609,9 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB131" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="soup"/>
+    <filterColumn colId="15">
+      <filters blank="1">
+        <filter val="null"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/meal_data.xlsx
+++ b/meal_data.xlsx
@@ -1209,18 +1209,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1560,7 +1554,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1584,16 +1578,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1602,89 +1596,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1743,9 +1737,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2098,10 +2090,10 @@
   <sheetPr/>
   <dimension ref="A1:AB212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P212" sqref="P212"/>
+      <selection pane="bottomLeft" activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2241,7 +2233,7 @@
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>45</v>
       </c>
       <c r="N2" s="2">
@@ -2324,11 +2316,11 @@
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>670</v>
+        <v>1070</v>
       </c>
       <c r="O3" s="3">
         <v>120</v>
@@ -2407,7 +2399,7 @@
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="2">
@@ -2490,11 +2482,11 @@
       <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>482.6</v>
+        <v>582.6</v>
       </c>
       <c r="O5" s="3">
         <v>14.8</v>
@@ -2573,7 +2565,7 @@
       <c r="L6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="2">
@@ -2656,7 +2648,7 @@
       <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="2">
@@ -2739,8 +2731,8 @@
       <c r="L8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="2">
-        <v>155</v>
+      <c r="M8" s="1">
+        <v>185</v>
       </c>
       <c r="N8" s="2">
         <v>60</v>
@@ -2822,7 +2814,7 @@
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="2">
@@ -2905,7 +2897,7 @@
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>5</v>
       </c>
       <c r="N10" s="2">
@@ -2988,7 +2980,7 @@
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="2">
@@ -3071,7 +3063,7 @@
       <c r="L12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>13</v>
       </c>
       <c r="N12" s="2">
@@ -3154,11 +3146,11 @@
       <c r="L13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>120</v>
       </c>
       <c r="N13" s="2">
-        <v>1180</v>
+        <v>1580</v>
       </c>
       <c r="O13" s="3">
         <v>15</v>
@@ -3237,7 +3229,7 @@
       <c r="L14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="2">
@@ -3320,7 +3312,7 @@
       <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>53</v>
       </c>
       <c r="N15" s="2">
@@ -3403,7 +3395,7 @@
       <c r="L16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="N16" s="2">
@@ -3486,11 +3478,11 @@
       <c r="L17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="2">
-        <v>110</v>
+      <c r="M17" s="1">
+        <v>140</v>
       </c>
       <c r="N17" s="2">
-        <v>1210</v>
+        <v>2010</v>
       </c>
       <c r="O17" s="3">
         <v>55</v>
@@ -3569,7 +3561,7 @@
       <c r="L18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>25</v>
       </c>
       <c r="N18" s="2">
@@ -3652,11 +3644,11 @@
       <c r="L19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="2">
-        <v>250</v>
+      <c r="M19" s="1">
+        <v>490</v>
       </c>
       <c r="N19" s="2">
-        <v>1370</v>
+        <v>2570</v>
       </c>
       <c r="O19" s="3">
         <v>59</v>
@@ -3735,7 +3727,7 @@
       <c r="L20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" s="2">
@@ -3818,7 +3810,7 @@
       <c r="L21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>4</v>
       </c>
       <c r="N21" s="2">
@@ -3901,11 +3893,11 @@
       <c r="L22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="2">
-        <v>105</v>
+      <c r="M22" s="1">
+        <v>115</v>
       </c>
       <c r="N22" s="2">
-        <v>1150</v>
+        <v>2350</v>
       </c>
       <c r="O22" s="3">
         <v>51</v>
@@ -3984,7 +3976,7 @@
       <c r="L23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>0</v>
       </c>
       <c r="N23" s="2">
@@ -4067,7 +4059,7 @@
       <c r="L24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>45</v>
       </c>
       <c r="N24" s="2">
@@ -4150,7 +4142,7 @@
       <c r="L25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="2">
@@ -4233,7 +4225,7 @@
       <c r="L26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>0</v>
       </c>
       <c r="N26" s="2">
@@ -4316,7 +4308,7 @@
       <c r="L27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>47</v>
       </c>
       <c r="N27" s="2">
@@ -4399,11 +4391,11 @@
       <c r="L28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1260</v>
+        <v>2460</v>
       </c>
       <c r="O28" s="3">
         <v>40</v>
@@ -4482,11 +4474,11 @@
       <c r="L29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>116.8</v>
       </c>
       <c r="N29" s="2">
-        <v>628.6</v>
+        <v>928.6</v>
       </c>
       <c r="O29" s="3">
         <v>10.8</v>
@@ -4565,7 +4557,7 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>0</v>
       </c>
       <c r="N30" s="2">
@@ -4648,11 +4640,11 @@
       <c r="L31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="2">
-        <v>70</v>
+      <c r="M31" s="1">
+        <v>80</v>
       </c>
       <c r="N31" s="2">
-        <v>680</v>
+        <v>980</v>
       </c>
       <c r="O31" s="3">
         <v>40</v>
@@ -4731,11 +4723,11 @@
       <c r="L32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>39</v>
       </c>
       <c r="N32" s="2">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="O32" s="3">
         <v>82</v>
@@ -4814,7 +4806,7 @@
       <c r="L33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>8</v>
       </c>
       <c r="N33" s="2">
@@ -4897,7 +4889,7 @@
       <c r="L34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="2">
@@ -4980,11 +4972,11 @@
       <c r="L35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="2">
-        <v>55</v>
+      <c r="M35" s="1">
+        <v>65</v>
       </c>
       <c r="N35" s="2">
-        <v>1120</v>
+        <v>1320</v>
       </c>
       <c r="O35" s="3">
         <v>60</v>
@@ -5063,8 +5055,8 @@
       <c r="L36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="2">
-        <v>50</v>
+      <c r="M36" s="1">
+        <v>80</v>
       </c>
       <c r="N36" s="2">
         <v>310</v>
@@ -5146,11 +5138,11 @@
       <c r="L37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>40</v>
       </c>
       <c r="N37" s="2">
-        <v>590</v>
+        <v>890</v>
       </c>
       <c r="O37" s="3">
         <v>56</v>
@@ -5229,7 +5221,7 @@
       <c r="L38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>0</v>
       </c>
       <c r="N38" s="2">
@@ -5312,11 +5304,11 @@
       <c r="L39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>30</v>
       </c>
       <c r="N39" s="2">
-        <v>1420</v>
+        <v>2320</v>
       </c>
       <c r="O39" s="3">
         <v>98</v>
@@ -5395,7 +5387,7 @@
       <c r="L40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>73</v>
       </c>
       <c r="N40" s="2">
@@ -5478,11 +5470,11 @@
       <c r="L41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="2">
-        <v>76</v>
+      <c r="M41" s="1">
+        <v>106</v>
       </c>
       <c r="N41" s="2">
-        <v>1817</v>
+        <v>3117</v>
       </c>
       <c r="O41" s="3">
         <v>201</v>
@@ -5561,11 +5553,11 @@
       <c r="L42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>16</v>
       </c>
       <c r="N42" s="2">
-        <v>742</v>
+        <v>1142</v>
       </c>
       <c r="O42" s="3">
         <v>9</v>
@@ -5644,7 +5636,7 @@
       <c r="L43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="2">
@@ -5727,7 +5719,7 @@
       <c r="L44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>30</v>
       </c>
       <c r="N44" s="2">
@@ -5810,11 +5802,11 @@
       <c r="L45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <v>65</v>
       </c>
       <c r="N45" s="2">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="O45" s="3">
         <v>12</v>
@@ -5893,11 +5885,11 @@
       <c r="L46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <v>75</v>
       </c>
       <c r="N46" s="2">
-        <v>510</v>
+        <v>910</v>
       </c>
       <c r="O46" s="3">
         <v>12</v>
@@ -5976,7 +5968,7 @@
       <c r="L47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="1">
         <v>30</v>
       </c>
       <c r="N47" s="2">
@@ -6059,11 +6051,11 @@
       <c r="L48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>6.3</v>
       </c>
       <c r="N48" s="2">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="O48" s="3">
         <v>10</v>
@@ -6142,11 +6134,11 @@
       <c r="L49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>35</v>
       </c>
       <c r="N49" s="2">
-        <v>370</v>
+        <v>570</v>
       </c>
       <c r="O49" s="3">
         <v>19</v>
@@ -6225,7 +6217,7 @@
       <c r="L50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>0</v>
       </c>
       <c r="N50" s="2">
@@ -6308,11 +6300,11 @@
       <c r="L51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M51" s="2">
-        <v>70</v>
+      <c r="M51" s="1">
+        <v>110</v>
       </c>
       <c r="N51" s="2">
-        <v>1030</v>
+        <v>1430</v>
       </c>
       <c r="O51" s="3">
         <v>3</v>
@@ -6391,11 +6383,11 @@
       <c r="L52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>0</v>
       </c>
       <c r="N52" s="2">
-        <v>1251</v>
+        <v>1951</v>
       </c>
       <c r="O52" s="3">
         <v>102</v>
@@ -6474,7 +6466,7 @@
       <c r="L53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>0</v>
       </c>
       <c r="N53" s="2">
@@ -6557,11 +6549,11 @@
       <c r="L54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M54" s="2">
-        <v>165</v>
+      <c r="M54" s="1">
+        <v>225</v>
       </c>
       <c r="N54" s="2">
-        <v>1250</v>
+        <v>2420</v>
       </c>
       <c r="O54" s="3">
         <v>108</v>
@@ -6640,7 +6632,7 @@
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>6.3</v>
       </c>
       <c r="N55" s="2">
@@ -6723,7 +6715,7 @@
       <c r="L56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <v>0</v>
       </c>
       <c r="N56" s="2">
@@ -6806,11 +6798,11 @@
       <c r="L57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="1">
         <v>30</v>
       </c>
       <c r="N57" s="2">
-        <v>1173</v>
+        <v>1273</v>
       </c>
       <c r="O57" s="3">
         <v>12</v>
@@ -6889,7 +6881,7 @@
       <c r="L58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="1">
         <v>57</v>
       </c>
       <c r="N58" s="2">
@@ -6972,7 +6964,7 @@
       <c r="L59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="1">
         <v>0</v>
       </c>
       <c r="N59" s="2">
@@ -7055,7 +7047,7 @@
       <c r="L60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="1">
         <v>0</v>
       </c>
       <c r="N60" s="2">
@@ -7138,11 +7130,11 @@
       <c r="L61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M61" s="2">
-        <v>126</v>
+      <c r="M61" s="1">
+        <v>166</v>
       </c>
       <c r="N61" s="2">
-        <v>1399</v>
+        <v>2399</v>
       </c>
       <c r="O61" s="3">
         <v>70</v>
@@ -7221,7 +7213,7 @@
       <c r="L62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="1">
         <v>0</v>
       </c>
       <c r="N62" s="2">
@@ -7304,11 +7296,11 @@
       <c r="L63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>470</v>
+        <v>670</v>
       </c>
       <c r="O63" s="3">
         <v>69</v>
@@ -7387,7 +7379,7 @@
       <c r="L64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="1">
         <v>45</v>
       </c>
       <c r="N64" s="2">
@@ -7470,7 +7462,7 @@
       <c r="L65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="1">
         <v>11</v>
       </c>
       <c r="N65" s="2">
@@ -7553,7 +7545,7 @@
       <c r="L66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="1">
         <v>0</v>
       </c>
       <c r="N66" s="2">
@@ -7636,7 +7628,7 @@
       <c r="L67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <v>45</v>
       </c>
       <c r="N67" s="2">
@@ -7719,11 +7711,11 @@
       <c r="L68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M68" s="2">
-        <v>113</v>
+      <c r="M68" s="1">
+        <v>133</v>
       </c>
       <c r="N68" s="2">
-        <v>1228</v>
+        <v>3328</v>
       </c>
       <c r="O68" s="3">
         <v>102</v>
@@ -7802,11 +7794,11 @@
       <c r="L69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M69" s="2">
-        <v>80</v>
+      <c r="M69" s="1">
+        <v>110</v>
       </c>
       <c r="N69" s="2">
-        <v>1060</v>
+        <v>1360</v>
       </c>
       <c r="O69" s="3">
         <v>33</v>
@@ -7885,7 +7877,7 @@
       <c r="L70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="1">
         <v>0</v>
       </c>
       <c r="N70" s="2">
@@ -7968,7 +7960,7 @@
       <c r="L71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <v>0</v>
       </c>
       <c r="N71" s="2">
@@ -8045,11 +8037,11 @@
       <c r="L72" s="1">
         <v>5.9</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="1">
         <v>27</v>
       </c>
       <c r="N72" s="2">
-        <v>524</v>
+        <v>824</v>
       </c>
       <c r="O72" s="3">
         <v>19</v>
@@ -8101,8 +8093,8 @@
       <c r="L73" s="1">
         <v>12</v>
       </c>
-      <c r="M73" s="2">
-        <v>273</v>
+      <c r="M73" s="1">
+        <v>523</v>
       </c>
       <c r="N73" s="2">
         <v>550</v>
@@ -8160,11 +8152,11 @@
       <c r="L74" s="1">
         <v>11</v>
       </c>
-      <c r="M74" s="2">
-        <v>76</v>
+      <c r="M74" s="1">
+        <v>86</v>
       </c>
       <c r="N74" s="2">
-        <v>689</v>
+        <v>989</v>
       </c>
       <c r="O74" s="3">
         <v>13</v>
@@ -8219,8 +8211,8 @@
       <c r="L75" s="1">
         <v>5.9</v>
       </c>
-      <c r="M75" s="2">
-        <v>54</v>
+      <c r="M75" s="1">
+        <v>64</v>
       </c>
       <c r="N75" s="2">
         <v>226</v>
@@ -8278,11 +8270,11 @@
       <c r="L76" s="1">
         <v>4.8</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="1">
         <v>116</v>
       </c>
       <c r="N76" s="2">
-        <v>655</v>
+        <v>1155</v>
       </c>
       <c r="O76" s="3">
         <v>7.1</v>
@@ -8331,11 +8323,11 @@
       <c r="J77" s="1">
         <v>0</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="1">
         <v>10</v>
       </c>
       <c r="N77" s="2">
-        <v>1230</v>
+        <v>1530</v>
       </c>
       <c r="O77" s="3">
         <v>78</v>
@@ -8378,11 +8370,11 @@
       <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="1">
         <v>5</v>
       </c>
       <c r="N78" s="2">
-        <v>1380</v>
+        <v>2080</v>
       </c>
       <c r="O78" s="3">
         <v>105</v>
@@ -8422,11 +8414,11 @@
       <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="M79" s="2">
-        <v>55</v>
+      <c r="M79" s="1">
+        <v>75</v>
       </c>
       <c r="N79" s="2">
-        <v>1950</v>
+        <v>2750</v>
       </c>
       <c r="O79" s="3">
         <v>115</v>
@@ -8466,11 +8458,11 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="M80" s="2">
-        <v>315</v>
+      <c r="M80" s="1">
+        <v>455</v>
       </c>
       <c r="N80" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="O80" s="3">
         <v>29</v>
@@ -8510,11 +8502,11 @@
       <c r="J81" s="1">
         <v>0</v>
       </c>
-      <c r="M81" s="2">
-        <v>290</v>
+      <c r="M81" s="1">
+        <v>430</v>
       </c>
       <c r="N81" s="2">
-        <v>1570</v>
+        <v>2570</v>
       </c>
       <c r="O81" s="3">
         <v>75</v>
@@ -8554,11 +8546,11 @@
       <c r="J82" s="1">
         <v>1</v>
       </c>
-      <c r="M82" s="2">
-        <v>160</v>
+      <c r="M82" s="1">
+        <v>200</v>
       </c>
       <c r="N82" s="2">
-        <v>1330</v>
+        <v>2030</v>
       </c>
       <c r="O82" s="3">
         <v>43</v>
@@ -8598,11 +8590,11 @@
       <c r="J83" s="1">
         <v>0</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="1">
         <v>45</v>
       </c>
       <c r="N83" s="2">
-        <v>1440</v>
+        <v>2340</v>
       </c>
       <c r="O83" s="3">
         <v>107</v>
@@ -8648,7 +8640,7 @@
       <c r="L84" s="1">
         <v>5.1</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="1">
         <v>123</v>
       </c>
       <c r="N84" s="2">
@@ -8707,11 +8699,11 @@
       <c r="L85" s="1">
         <v>11</v>
       </c>
-      <c r="M85" s="2">
-        <v>120</v>
+      <c r="M85" s="1">
+        <v>230</v>
       </c>
       <c r="N85" s="2">
-        <v>1122</v>
+        <v>1522</v>
       </c>
       <c r="O85" s="3">
         <v>72</v>
@@ -8763,11 +8755,11 @@
       <c r="L86" s="1">
         <v>16</v>
       </c>
-      <c r="M86" s="2">
-        <v>161</v>
+      <c r="M86" s="1">
+        <v>261</v>
       </c>
       <c r="N86" s="2">
-        <v>889</v>
+        <v>1089</v>
       </c>
       <c r="O86" s="3">
         <v>34</v>
@@ -8813,11 +8805,11 @@
       <c r="L87" s="1">
         <v>11</v>
       </c>
-      <c r="M87" s="2">
-        <v>161</v>
+      <c r="M87" s="1">
+        <v>231</v>
       </c>
       <c r="N87" s="2">
-        <v>1303</v>
+        <v>1703</v>
       </c>
       <c r="O87" s="3">
         <v>72</v>
@@ -8872,11 +8864,11 @@
       <c r="L88" s="1">
         <v>18</v>
       </c>
-      <c r="M88" s="2">
-        <v>170</v>
+      <c r="M88" s="1">
+        <v>270</v>
       </c>
       <c r="N88" s="2">
-        <v>978</v>
+        <v>1278</v>
       </c>
       <c r="O88" s="3">
         <v>32</v>
@@ -8931,11 +8923,11 @@
       <c r="L89" s="1">
         <v>5.2</v>
       </c>
-      <c r="M89" s="2">
-        <v>138</v>
+      <c r="M89" s="1">
+        <v>218</v>
       </c>
       <c r="N89" s="2">
-        <v>561</v>
+        <v>861</v>
       </c>
       <c r="O89" s="3">
         <v>29</v>
@@ -8990,11 +8982,11 @@
       <c r="L90" s="1">
         <v>16</v>
       </c>
-      <c r="M90" s="2">
-        <v>193</v>
+      <c r="M90" s="1">
+        <v>293</v>
       </c>
       <c r="N90" s="2">
-        <v>345</v>
+        <v>545</v>
       </c>
       <c r="O90" s="3">
         <v>31</v>
@@ -9049,11 +9041,11 @@
       <c r="L91" s="1">
         <v>9.9</v>
       </c>
-      <c r="M91" s="2">
-        <v>113</v>
+      <c r="M91" s="1">
+        <v>123</v>
       </c>
       <c r="N91" s="2">
-        <v>369</v>
+        <v>569</v>
       </c>
       <c r="O91" s="3">
         <v>26</v>
@@ -9108,7 +9100,7 @@
       <c r="L92" s="1">
         <v>3.1</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="1">
         <v>23</v>
       </c>
       <c r="N92" s="2">
@@ -9167,8 +9159,8 @@
       <c r="L93" s="1">
         <v>2.8</v>
       </c>
-      <c r="M93" s="2">
-        <v>124</v>
+      <c r="M93" s="1">
+        <v>184</v>
       </c>
       <c r="N93" s="2">
         <v>95</v>
@@ -9226,11 +9218,11 @@
       <c r="L94" s="1">
         <v>7.8</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="1">
         <v>96</v>
       </c>
       <c r="N94" s="2">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="O94" s="3">
         <v>39</v>
@@ -9285,7 +9277,7 @@
       <c r="L95" s="1">
         <v>7</v>
       </c>
-      <c r="M95" s="2">
+      <c r="M95" s="1">
         <v>0</v>
       </c>
       <c r="N95" s="2">
@@ -9338,11 +9330,11 @@
       <c r="J96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="2">
-        <v>100</v>
+      <c r="M96" s="1">
+        <v>110</v>
       </c>
       <c r="N96" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O96" s="3">
         <v>11</v>
@@ -9391,7 +9383,7 @@
       <c r="L97" s="1">
         <v>9.9</v>
       </c>
-      <c r="M97" s="2">
+      <c r="M97" s="1">
         <v>0</v>
       </c>
       <c r="N97" s="2">
@@ -9450,11 +9442,11 @@
       <c r="L98" s="1">
         <v>4</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="1">
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <v>474</v>
+        <v>574</v>
       </c>
       <c r="O98" s="3">
         <v>14</v>
@@ -9509,7 +9501,7 @@
       <c r="L99" s="1">
         <v>6.6</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99" s="1">
         <v>0</v>
       </c>
       <c r="N99" s="2">
@@ -9568,11 +9560,11 @@
       <c r="L100" s="1">
         <v>2.9</v>
       </c>
-      <c r="M100" s="2">
-        <v>64</v>
+      <c r="M100" s="1">
+        <v>84</v>
       </c>
       <c r="N100" s="2">
-        <v>547</v>
+        <v>847</v>
       </c>
       <c r="O100" s="3">
         <v>64</v>
@@ -9630,7 +9622,7 @@
       <c r="L101" s="7">
         <v>0</v>
       </c>
-      <c r="M101" s="6">
+      <c r="M101" s="7">
         <v>0</v>
       </c>
       <c r="N101" s="6">
@@ -9694,11 +9686,11 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
-      <c r="M102" s="6">
+      <c r="M102" s="7">
         <v>20</v>
       </c>
       <c r="N102" s="6">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="O102" s="12">
         <v>40</v>
@@ -9762,7 +9754,7 @@
       <c r="L103" s="7">
         <v>6.9</v>
       </c>
-      <c r="M103" s="6">
+      <c r="M103" s="7">
         <v>12</v>
       </c>
       <c r="N103" s="6">
@@ -9832,8 +9824,8 @@
       <c r="L104" s="7">
         <v>2.2</v>
       </c>
-      <c r="M104" s="6">
-        <v>60</v>
+      <c r="M104" s="7">
+        <v>80</v>
       </c>
       <c r="N104" s="6">
         <v>484</v>
@@ -9900,11 +9892,11 @@
       <c r="L105" s="7">
         <v>1.3</v>
       </c>
-      <c r="M105" s="6">
+      <c r="M105" s="7">
         <v>7.4</v>
       </c>
       <c r="N105" s="6">
-        <v>819</v>
+        <v>1319</v>
       </c>
       <c r="O105" s="12">
         <v>20</v>
@@ -9968,7 +9960,7 @@
       <c r="L106" s="7">
         <v>2.4</v>
       </c>
-      <c r="M106" s="6">
+      <c r="M106" s="7">
         <v>17</v>
       </c>
       <c r="N106" s="6">
@@ -10036,11 +10028,11 @@
       <c r="L107" s="7">
         <v>8.8</v>
       </c>
-      <c r="M107" s="6">
+      <c r="M107" s="7">
         <v>0.3</v>
       </c>
       <c r="N107" s="6">
-        <v>1084</v>
+        <v>1384</v>
       </c>
       <c r="O107" s="12">
         <v>14</v>
@@ -10106,11 +10098,11 @@
       <c r="L108" s="7">
         <v>4</v>
       </c>
-      <c r="M108" s="6">
-        <v>169</v>
+      <c r="M108" s="7">
+        <v>219</v>
       </c>
       <c r="N108" s="6">
-        <v>1328</v>
+        <v>1728</v>
       </c>
       <c r="O108" s="12">
         <v>11</v>
@@ -10172,7 +10164,7 @@
       <c r="L109" s="7">
         <v>9.4</v>
       </c>
-      <c r="M109" s="6">
+      <c r="M109" s="7">
         <v>45</v>
       </c>
       <c r="N109" s="6">
@@ -10242,11 +10234,11 @@
       <c r="L110" s="7">
         <v>5.5</v>
       </c>
-      <c r="M110" s="6">
+      <c r="M110" s="7">
         <v>25</v>
       </c>
       <c r="N110" s="6">
-        <v>1449</v>
+        <v>2249</v>
       </c>
       <c r="O110" s="12">
         <v>36</v>
@@ -10310,11 +10302,11 @@
       <c r="L111" s="7">
         <v>1.3</v>
       </c>
-      <c r="M111" s="6">
+      <c r="M111" s="7">
         <v>20</v>
       </c>
       <c r="N111" s="6">
-        <v>1062</v>
+        <v>1662</v>
       </c>
       <c r="O111" s="12">
         <v>15</v>
@@ -10376,11 +10368,11 @@
       <c r="L112" s="7">
         <v>5</v>
       </c>
-      <c r="M112" s="6">
-        <v>62</v>
+      <c r="M112" s="7">
+        <v>82</v>
       </c>
       <c r="N112" s="6">
-        <v>1049</v>
+        <v>1349</v>
       </c>
       <c r="O112" s="12">
         <v>71</v>
@@ -10444,8 +10436,8 @@
       <c r="L113" s="7">
         <v>0.4</v>
       </c>
-      <c r="M113" s="6">
-        <v>35</v>
+      <c r="M113" s="7">
+        <v>45</v>
       </c>
       <c r="N113" s="6">
         <v>8.1</v>
@@ -10510,11 +10502,11 @@
       <c r="L114" s="7">
         <v>2.5</v>
       </c>
-      <c r="M114" s="6">
+      <c r="M114" s="7">
         <v>49</v>
       </c>
       <c r="N114" s="6">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="O114" s="12">
         <v>10</v>
@@ -10580,11 +10572,11 @@
       <c r="L115" s="7">
         <v>8.2</v>
       </c>
-      <c r="M115" s="6">
-        <v>66</v>
+      <c r="M115" s="7">
+        <v>86</v>
       </c>
       <c r="N115" s="6">
-        <v>556</v>
+        <v>856</v>
       </c>
       <c r="O115" s="12">
         <v>122</v>
@@ -10652,11 +10644,11 @@
       <c r="L116" s="9">
         <v>3.5</v>
       </c>
-      <c r="M116" s="8">
+      <c r="M116" s="9">
         <v>30</v>
       </c>
       <c r="N116" s="8">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="O116" s="13">
         <v>45</v>
@@ -10735,7 +10727,7 @@
       <c r="L117" s="11">
         <v>0.8</v>
       </c>
-      <c r="M117" s="10">
+      <c r="M117" s="11">
         <v>0</v>
       </c>
       <c r="N117" s="10">
@@ -10818,11 +10810,11 @@
       <c r="L118" s="11">
         <v>1.5</v>
       </c>
-      <c r="M118" s="10">
+      <c r="M118" s="11">
         <v>0</v>
       </c>
       <c r="N118" s="10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O118" s="14">
         <v>40</v>
@@ -10901,7 +10893,7 @@
       <c r="L119" s="11">
         <v>0.3</v>
       </c>
-      <c r="M119" s="10">
+      <c r="M119" s="11">
         <v>0</v>
       </c>
       <c r="N119" s="10">
@@ -10984,11 +10976,11 @@
       <c r="L120" s="11">
         <v>2.5</v>
       </c>
-      <c r="M120" s="10">
+      <c r="M120" s="11">
         <v>15</v>
       </c>
       <c r="N120" s="10">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="O120" s="14">
         <v>40</v>
@@ -11067,11 +11059,11 @@
       <c r="L121" s="11">
         <v>2.5</v>
       </c>
-      <c r="M121" s="10">
+      <c r="M121" s="11">
         <v>0</v>
       </c>
       <c r="N121" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O121" s="14">
         <v>25</v>
@@ -11150,7 +11142,7 @@
       <c r="L122" s="11">
         <v>1</v>
       </c>
-      <c r="M122" s="10">
+      <c r="M122" s="11">
         <v>0</v>
       </c>
       <c r="N122" s="10">
@@ -11233,7 +11225,7 @@
       <c r="L123" s="11">
         <v>1.2</v>
       </c>
-      <c r="M123" s="10">
+      <c r="M123" s="11">
         <v>0</v>
       </c>
       <c r="N123" s="10">
@@ -11316,7 +11308,7 @@
       <c r="L124" s="11">
         <v>0.1</v>
       </c>
-      <c r="M124" s="10">
+      <c r="M124" s="11">
         <v>0</v>
       </c>
       <c r="N124" s="10">
@@ -11399,11 +11391,11 @@
       <c r="L125" s="11">
         <v>3.5</v>
       </c>
-      <c r="M125" s="10">
-        <v>140</v>
+      <c r="M125" s="11">
+        <v>370</v>
       </c>
       <c r="N125" s="10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O125" s="14">
         <v>3</v>
@@ -11482,7 +11474,7 @@
       <c r="L126" s="11">
         <v>3</v>
       </c>
-      <c r="M126" s="10">
+      <c r="M126" s="11">
         <v>20</v>
       </c>
       <c r="N126" s="10">
@@ -11565,7 +11557,7 @@
       <c r="L127" s="11">
         <v>1</v>
       </c>
-      <c r="M127" s="10">
+      <c r="M127" s="11">
         <v>30</v>
       </c>
       <c r="N127" s="10">
@@ -11648,11 +11640,11 @@
       <c r="L128" s="11">
         <v>3</v>
       </c>
-      <c r="M128" s="10">
+      <c r="M128" s="11">
         <v>40</v>
       </c>
       <c r="N128" s="10">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="O128" s="14">
         <v>55</v>
@@ -11731,11 +11723,11 @@
       <c r="L129" s="11">
         <v>7</v>
       </c>
-      <c r="M129" s="10">
+      <c r="M129" s="11">
         <v>50</v>
       </c>
       <c r="N129" s="10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="O129" s="14">
         <v>45</v>
@@ -11814,11 +11806,11 @@
       <c r="L130" s="11">
         <v>10</v>
       </c>
-      <c r="M130" s="10">
-        <v>30</v>
+      <c r="M130" s="11">
+        <v>50</v>
       </c>
       <c r="N130" s="10">
-        <v>720</v>
+        <v>1100</v>
       </c>
       <c r="O130" s="14">
         <v>50</v>
@@ -11897,11 +11889,11 @@
       <c r="L131" s="11">
         <v>6</v>
       </c>
-      <c r="M131" s="10">
+      <c r="M131" s="11">
         <v>50</v>
       </c>
       <c r="N131" s="10">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="O131" s="14">
         <v>35</v>
@@ -11980,13 +11972,13 @@
       <c r="L132" s="19">
         <v>0.3</v>
       </c>
-      <c r="M132" s="24">
+      <c r="M132" s="19">
         <v>0</v>
       </c>
       <c r="N132" s="18">
         <v>140</v>
       </c>
-      <c r="O132" s="25">
+      <c r="O132" s="24">
         <v>12</v>
       </c>
       <c r="P132" s="18">
@@ -11995,13 +11987,13 @@
       <c r="Q132" s="19">
         <v>2</v>
       </c>
-      <c r="R132" s="25">
+      <c r="R132" s="24">
         <v>3</v>
       </c>
-      <c r="S132" s="25">
+      <c r="S132" s="24">
         <v>40</v>
       </c>
-      <c r="T132" s="25">
+      <c r="T132" s="24">
         <v>20</v>
       </c>
       <c r="U132" s="19">
@@ -12025,7 +12017,7 @@
       <c r="AA132" s="19">
         <v>100</v>
       </c>
-      <c r="AB132" s="28" t="s">
+      <c r="AB132" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12063,13 +12055,13 @@
       <c r="L133" s="19">
         <v>0.5</v>
       </c>
-      <c r="M133" s="24">
+      <c r="M133" s="19">
         <v>0</v>
       </c>
       <c r="N133" s="18">
         <v>160</v>
       </c>
-      <c r="O133" s="25">
+      <c r="O133" s="24">
         <v>14</v>
       </c>
       <c r="P133" s="18">
@@ -12078,13 +12070,13 @@
       <c r="Q133" s="19">
         <v>2</v>
       </c>
-      <c r="R133" s="25">
+      <c r="R133" s="24">
         <v>4</v>
       </c>
-      <c r="S133" s="25">
+      <c r="S133" s="24">
         <v>70</v>
       </c>
-      <c r="T133" s="25">
+      <c r="T133" s="24">
         <v>25</v>
       </c>
       <c r="U133" s="19">
@@ -12108,7 +12100,7 @@
       <c r="AA133" s="19">
         <v>110</v>
       </c>
-      <c r="AB133" s="28" t="s">
+      <c r="AB133" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12146,13 +12138,13 @@
       <c r="L134" s="19">
         <v>0.2</v>
       </c>
-      <c r="M134" s="24">
+      <c r="M134" s="19">
         <v>0</v>
       </c>
       <c r="N134" s="18">
         <v>120</v>
       </c>
-      <c r="O134" s="25">
+      <c r="O134" s="24">
         <v>8</v>
       </c>
       <c r="P134" s="18">
@@ -12161,13 +12153,13 @@
       <c r="Q134" s="19">
         <v>1</v>
       </c>
-      <c r="R134" s="25">
+      <c r="R134" s="24">
         <v>2</v>
       </c>
-      <c r="S134" s="25">
+      <c r="S134" s="24">
         <v>30</v>
       </c>
-      <c r="T134" s="25">
+      <c r="T134" s="24">
         <v>10</v>
       </c>
       <c r="U134" s="19">
@@ -12191,7 +12183,7 @@
       <c r="AA134" s="19">
         <v>90</v>
       </c>
-      <c r="AB134" s="28" t="s">
+      <c r="AB134" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12229,13 +12221,13 @@
       <c r="L135" s="19">
         <v>0.1</v>
       </c>
-      <c r="M135" s="24">
+      <c r="M135" s="19">
         <v>0</v>
       </c>
       <c r="N135" s="18">
         <v>110</v>
       </c>
-      <c r="O135" s="25">
+      <c r="O135" s="24">
         <v>7</v>
       </c>
       <c r="P135" s="18">
@@ -12244,13 +12236,13 @@
       <c r="Q135" s="19">
         <v>1</v>
       </c>
-      <c r="R135" s="25">
+      <c r="R135" s="24">
         <v>3</v>
       </c>
-      <c r="S135" s="25">
+      <c r="S135" s="24">
         <v>25</v>
       </c>
-      <c r="T135" s="25">
+      <c r="T135" s="24">
         <v>15</v>
       </c>
       <c r="U135" s="19">
@@ -12274,7 +12266,7 @@
       <c r="AA135" s="19">
         <v>85</v>
       </c>
-      <c r="AB135" s="28" t="s">
+      <c r="AB135" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12312,13 +12304,13 @@
       <c r="L136" s="19">
         <v>0.7</v>
       </c>
-      <c r="M136" s="24">
+      <c r="M136" s="19">
         <v>0</v>
       </c>
       <c r="N136" s="18">
         <v>200</v>
       </c>
-      <c r="O136" s="25">
+      <c r="O136" s="24">
         <v>10</v>
       </c>
       <c r="P136" s="18">
@@ -12327,13 +12319,13 @@
       <c r="Q136" s="19">
         <v>1</v>
       </c>
-      <c r="R136" s="25">
+      <c r="R136" s="24">
         <v>4</v>
       </c>
-      <c r="S136" s="25">
+      <c r="S136" s="24">
         <v>45</v>
       </c>
-      <c r="T136" s="25">
+      <c r="T136" s="24">
         <v>25</v>
       </c>
       <c r="U136" s="19">
@@ -12357,7 +12349,7 @@
       <c r="AA136" s="19">
         <v>100</v>
       </c>
-      <c r="AB136" s="28" t="s">
+      <c r="AB136" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12395,13 +12387,13 @@
       <c r="L137" s="19">
         <v>0.3</v>
       </c>
-      <c r="M137" s="24">
+      <c r="M137" s="19">
         <v>0</v>
       </c>
       <c r="N137" s="18">
         <v>150</v>
       </c>
-      <c r="O137" s="25">
+      <c r="O137" s="24">
         <v>9</v>
       </c>
       <c r="P137" s="18">
@@ -12410,13 +12402,13 @@
       <c r="Q137" s="19">
         <v>1</v>
       </c>
-      <c r="R137" s="25">
+      <c r="R137" s="24">
         <v>3</v>
       </c>
-      <c r="S137" s="25">
+      <c r="S137" s="24">
         <v>35</v>
       </c>
-      <c r="T137" s="25">
+      <c r="T137" s="24">
         <v>20</v>
       </c>
       <c r="U137" s="19">
@@ -12440,7 +12432,7 @@
       <c r="AA137" s="19">
         <v>95</v>
       </c>
-      <c r="AB137" s="28" t="s">
+      <c r="AB137" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12478,13 +12470,13 @@
       <c r="L138" s="19">
         <v>0.3</v>
       </c>
-      <c r="M138" s="24">
+      <c r="M138" s="19">
         <v>0</v>
       </c>
       <c r="N138" s="18">
         <v>140</v>
       </c>
-      <c r="O138" s="25">
+      <c r="O138" s="24">
         <v>10</v>
       </c>
       <c r="P138" s="18">
@@ -12493,13 +12485,13 @@
       <c r="Q138" s="19">
         <v>1</v>
       </c>
-      <c r="R138" s="25">
+      <c r="R138" s="24">
         <v>3</v>
       </c>
-      <c r="S138" s="25">
+      <c r="S138" s="24">
         <v>30</v>
       </c>
-      <c r="T138" s="25">
+      <c r="T138" s="24">
         <v>20</v>
       </c>
       <c r="U138" s="19">
@@ -12523,7 +12515,7 @@
       <c r="AA138" s="19">
         <v>90</v>
       </c>
-      <c r="AB138" s="28" t="s">
+      <c r="AB138" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12561,13 +12553,13 @@
       <c r="L139" s="19">
         <v>0.4</v>
       </c>
-      <c r="M139" s="24">
+      <c r="M139" s="19">
         <v>0</v>
       </c>
       <c r="N139" s="18">
-        <v>200</v>
-      </c>
-      <c r="O139" s="25">
+        <v>220</v>
+      </c>
+      <c r="O139" s="24">
         <v>29</v>
       </c>
       <c r="P139" s="18">
@@ -12576,13 +12568,13 @@
       <c r="Q139" s="19">
         <v>2</v>
       </c>
-      <c r="R139" s="25">
+      <c r="R139" s="24">
         <v>6</v>
       </c>
-      <c r="S139" s="25">
+      <c r="S139" s="24">
         <v>10</v>
       </c>
-      <c r="T139" s="25">
+      <c r="T139" s="24">
         <v>10</v>
       </c>
       <c r="U139" s="19">
@@ -12606,7 +12598,7 @@
       <c r="AA139" s="19">
         <v>100</v>
       </c>
-      <c r="AB139" s="28" t="s">
+      <c r="AB139" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12644,13 +12636,13 @@
       <c r="L140" s="19">
         <v>0.3</v>
       </c>
-      <c r="M140" s="24">
+      <c r="M140" s="19">
         <v>0</v>
       </c>
       <c r="N140" s="18">
         <v>230</v>
       </c>
-      <c r="O140" s="25">
+      <c r="O140" s="24">
         <v>32</v>
       </c>
       <c r="P140" s="18">
@@ -12659,13 +12651,13 @@
       <c r="Q140" s="19">
         <v>3</v>
       </c>
-      <c r="R140" s="25">
+      <c r="R140" s="24">
         <v>5</v>
       </c>
-      <c r="S140" s="25">
+      <c r="S140" s="24">
         <v>15</v>
       </c>
-      <c r="T140" s="25">
+      <c r="T140" s="24">
         <v>15</v>
       </c>
       <c r="U140" s="19">
@@ -12689,7 +12681,7 @@
       <c r="AA140" s="19">
         <v>95</v>
       </c>
-      <c r="AB140" s="28" t="s">
+      <c r="AB140" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12727,13 +12719,13 @@
       <c r="L141" s="19">
         <v>0.4</v>
       </c>
-      <c r="M141" s="24">
+      <c r="M141" s="19">
         <v>0</v>
       </c>
       <c r="N141" s="18">
-        <v>180</v>
-      </c>
-      <c r="O141" s="25">
+        <v>210</v>
+      </c>
+      <c r="O141" s="24">
         <v>28</v>
       </c>
       <c r="P141" s="18">
@@ -12742,13 +12734,13 @@
       <c r="Q141" s="19">
         <v>2</v>
       </c>
-      <c r="R141" s="25">
+      <c r="R141" s="24">
         <v>5</v>
       </c>
-      <c r="S141" s="25">
+      <c r="S141" s="24">
         <v>10</v>
       </c>
-      <c r="T141" s="25">
+      <c r="T141" s="24">
         <v>10</v>
       </c>
       <c r="U141" s="19">
@@ -12772,7 +12764,7 @@
       <c r="AA141" s="19">
         <v>90</v>
       </c>
-      <c r="AB141" s="28" t="s">
+      <c r="AB141" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12810,13 +12802,13 @@
       <c r="L142" s="19">
         <v>0.3</v>
       </c>
-      <c r="M142" s="24">
+      <c r="M142" s="19">
         <v>0</v>
       </c>
       <c r="N142" s="18">
         <v>180</v>
       </c>
-      <c r="O142" s="25">
+      <c r="O142" s="24">
         <v>18</v>
       </c>
       <c r="P142" s="18">
@@ -12825,13 +12817,13 @@
       <c r="Q142" s="19">
         <v>4</v>
       </c>
-      <c r="R142" s="25">
+      <c r="R142" s="24">
         <v>2</v>
       </c>
-      <c r="S142" s="25">
+      <c r="S142" s="24">
         <v>50</v>
       </c>
-      <c r="T142" s="25">
+      <c r="T142" s="24">
         <v>30</v>
       </c>
       <c r="U142" s="19">
@@ -12855,7 +12847,7 @@
       <c r="AA142" s="19">
         <v>100</v>
       </c>
-      <c r="AB142" s="28" t="s">
+      <c r="AB142" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12893,13 +12885,13 @@
       <c r="L143" s="19">
         <v>0.6</v>
       </c>
-      <c r="M143" s="24">
+      <c r="M143" s="19">
         <v>0</v>
       </c>
       <c r="N143" s="18">
         <v>190</v>
       </c>
-      <c r="O143" s="25">
+      <c r="O143" s="24">
         <v>24</v>
       </c>
       <c r="P143" s="18">
@@ -12908,13 +12900,13 @@
       <c r="Q143" s="19">
         <v>6</v>
       </c>
-      <c r="R143" s="25">
+      <c r="R143" s="24">
         <v>2</v>
       </c>
-      <c r="S143" s="25">
+      <c r="S143" s="24">
         <v>80</v>
       </c>
-      <c r="T143" s="25">
+      <c r="T143" s="24">
         <v>6</v>
       </c>
       <c r="U143" s="19">
@@ -12938,7 +12930,7 @@
       <c r="AA143" s="19">
         <v>120</v>
       </c>
-      <c r="AB143" s="28" t="s">
+      <c r="AB143" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12976,13 +12968,13 @@
       <c r="L144" s="19">
         <v>0.4</v>
       </c>
-      <c r="M144" s="24">
+      <c r="M144" s="19">
         <v>0</v>
       </c>
       <c r="N144" s="18">
         <v>160</v>
       </c>
-      <c r="O144" s="25">
+      <c r="O144" s="24">
         <v>20</v>
       </c>
       <c r="P144" s="18">
@@ -12991,13 +12983,13 @@
       <c r="Q144" s="19">
         <v>5</v>
       </c>
-      <c r="R144" s="25">
+      <c r="R144" s="24">
         <v>2</v>
       </c>
-      <c r="S144" s="25">
+      <c r="S144" s="24">
         <v>60</v>
       </c>
-      <c r="T144" s="25">
+      <c r="T144" s="24">
         <v>25</v>
       </c>
       <c r="U144" s="19">
@@ -13021,7 +13013,7 @@
       <c r="AA144" s="19">
         <v>110</v>
       </c>
-      <c r="AB144" s="28" t="s">
+      <c r="AB144" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13059,13 +13051,13 @@
       <c r="L145" s="19">
         <v>0.5</v>
       </c>
-      <c r="M145" s="24">
+      <c r="M145" s="19">
         <v>0</v>
       </c>
       <c r="N145" s="18">
-        <v>190</v>
-      </c>
-      <c r="O145" s="25">
+        <v>210</v>
+      </c>
+      <c r="O145" s="24">
         <v>15</v>
       </c>
       <c r="P145" s="18">
@@ -13074,13 +13066,13 @@
       <c r="Q145" s="19">
         <v>4</v>
       </c>
-      <c r="R145" s="25">
+      <c r="R145" s="24">
         <v>3</v>
       </c>
-      <c r="S145" s="25">
+      <c r="S145" s="24">
         <v>35</v>
       </c>
-      <c r="T145" s="25">
+      <c r="T145" s="24">
         <v>45</v>
       </c>
       <c r="U145" s="19">
@@ -13104,7 +13096,7 @@
       <c r="AA145" s="19">
         <v>120</v>
       </c>
-      <c r="AB145" s="28" t="s">
+      <c r="AB145" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13142,13 +13134,13 @@
       <c r="L146" s="19">
         <v>0.3</v>
       </c>
-      <c r="M146" s="24">
+      <c r="M146" s="19">
         <v>0</v>
       </c>
       <c r="N146" s="18">
         <v>170</v>
       </c>
-      <c r="O146" s="25">
+      <c r="O146" s="24">
         <v>16</v>
       </c>
       <c r="P146" s="18">
@@ -13157,13 +13149,13 @@
       <c r="Q146" s="19">
         <v>3</v>
       </c>
-      <c r="R146" s="25">
+      <c r="R146" s="24">
         <v>2</v>
       </c>
-      <c r="S146" s="25">
+      <c r="S146" s="24">
         <v>80</v>
       </c>
-      <c r="T146" s="25">
+      <c r="T146" s="24">
         <v>30</v>
       </c>
       <c r="U146" s="19">
@@ -13187,7 +13179,7 @@
       <c r="AA146" s="19">
         <v>100</v>
       </c>
-      <c r="AB146" s="28" t="s">
+      <c r="AB146" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13225,13 +13217,13 @@
       <c r="L147" s="19">
         <v>1.2</v>
       </c>
-      <c r="M147" s="24">
+      <c r="M147" s="19">
         <v>5</v>
       </c>
       <c r="N147" s="18">
         <v>250</v>
       </c>
-      <c r="O147" s="25">
+      <c r="O147" s="24">
         <v>28</v>
       </c>
       <c r="P147" s="18">
@@ -13240,13 +13232,13 @@
       <c r="Q147" s="19">
         <v>2</v>
       </c>
-      <c r="R147" s="25">
+      <c r="R147" s="24">
         <v>3</v>
       </c>
-      <c r="S147" s="25">
+      <c r="S147" s="24">
         <v>2</v>
       </c>
-      <c r="T147" s="25">
+      <c r="T147" s="24">
         <v>6</v>
       </c>
       <c r="U147" s="19">
@@ -13270,7 +13262,7 @@
       <c r="AA147" s="19">
         <v>120</v>
       </c>
-      <c r="AB147" s="28" t="s">
+      <c r="AB147" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13308,13 +13300,13 @@
       <c r="L148" s="19">
         <v>1.5</v>
       </c>
-      <c r="M148" s="24">
+      <c r="M148" s="19">
         <v>10</v>
       </c>
       <c r="N148" s="18">
         <v>270</v>
       </c>
-      <c r="O148" s="25">
+      <c r="O148" s="24">
         <v>30</v>
       </c>
       <c r="P148" s="18">
@@ -13323,13 +13315,13 @@
       <c r="Q148" s="19">
         <v>2</v>
       </c>
-      <c r="R148" s="25">
+      <c r="R148" s="24">
         <v>3</v>
       </c>
-      <c r="S148" s="25">
+      <c r="S148" s="24">
         <v>2</v>
       </c>
-      <c r="T148" s="25">
+      <c r="T148" s="24">
         <v>4</v>
       </c>
       <c r="U148" s="19">
@@ -13353,7 +13345,7 @@
       <c r="AA148" s="19">
         <v>110</v>
       </c>
-      <c r="AB148" s="28" t="s">
+      <c r="AB148" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13391,13 +13383,13 @@
       <c r="L149" s="19">
         <v>1.6</v>
       </c>
-      <c r="M149" s="24">
+      <c r="M149" s="19">
         <v>12</v>
       </c>
       <c r="N149" s="18">
-        <v>210</v>
-      </c>
-      <c r="O149" s="25">
+        <v>220</v>
+      </c>
+      <c r="O149" s="24">
         <v>25</v>
       </c>
       <c r="P149" s="18">
@@ -13406,13 +13398,13 @@
       <c r="Q149" s="19">
         <v>1</v>
       </c>
-      <c r="R149" s="25">
+      <c r="R149" s="24">
         <v>4</v>
       </c>
-      <c r="S149" s="25">
+      <c r="S149" s="24">
         <v>2</v>
       </c>
-      <c r="T149" s="25">
+      <c r="T149" s="24">
         <v>4</v>
       </c>
       <c r="U149" s="19">
@@ -13436,7 +13428,7 @@
       <c r="AA149" s="19">
         <v>125</v>
       </c>
-      <c r="AB149" s="28" t="s">
+      <c r="AB149" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13474,13 +13466,13 @@
       <c r="L150" s="19">
         <v>1.3</v>
       </c>
-      <c r="M150" s="24">
+      <c r="M150" s="19">
         <v>5</v>
       </c>
       <c r="N150" s="18">
         <v>240</v>
       </c>
-      <c r="O150" s="25">
+      <c r="O150" s="24">
         <v>27</v>
       </c>
       <c r="P150" s="18">
@@ -13489,13 +13481,13 @@
       <c r="Q150" s="19">
         <v>2</v>
       </c>
-      <c r="R150" s="25">
+      <c r="R150" s="24">
         <v>3</v>
       </c>
-      <c r="S150" s="25">
+      <c r="S150" s="24">
         <v>2</v>
       </c>
-      <c r="T150" s="25">
+      <c r="T150" s="24">
         <v>6</v>
       </c>
       <c r="U150" s="19">
@@ -13519,7 +13511,7 @@
       <c r="AA150" s="19">
         <v>110</v>
       </c>
-      <c r="AB150" s="28" t="s">
+      <c r="AB150" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13557,13 +13549,13 @@
       <c r="L151" s="19">
         <v>1.4</v>
       </c>
-      <c r="M151" s="24">
+      <c r="M151" s="19">
         <v>10</v>
       </c>
       <c r="N151" s="18">
-        <v>200</v>
-      </c>
-      <c r="O151" s="25">
+        <v>230</v>
+      </c>
+      <c r="O151" s="24">
         <v>32</v>
       </c>
       <c r="P151" s="18">
@@ -13572,13 +13564,13 @@
       <c r="Q151" s="19">
         <v>9</v>
       </c>
-      <c r="R151" s="25">
+      <c r="R151" s="24">
         <v>2</v>
       </c>
-      <c r="S151" s="25">
+      <c r="S151" s="24">
         <v>100</v>
       </c>
-      <c r="T151" s="25">
+      <c r="T151" s="24">
         <v>8</v>
       </c>
       <c r="U151" s="19">
@@ -13602,7 +13594,7 @@
       <c r="AA151" s="19">
         <v>120</v>
       </c>
-      <c r="AB151" s="28" t="s">
+      <c r="AB151" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13640,13 +13632,13 @@
       <c r="L152" s="19">
         <v>0.5</v>
       </c>
-      <c r="M152" s="24">
+      <c r="M152" s="19">
         <v>2</v>
       </c>
       <c r="N152" s="18">
         <v>200</v>
       </c>
-      <c r="O152" s="25">
+      <c r="O152" s="24">
         <v>23</v>
       </c>
       <c r="P152" s="18">
@@ -13655,13 +13647,13 @@
       <c r="Q152" s="19">
         <v>1</v>
       </c>
-      <c r="R152" s="25">
+      <c r="R152" s="24">
         <v>3</v>
       </c>
-      <c r="S152" s="25">
+      <c r="S152" s="24">
         <v>4</v>
       </c>
-      <c r="T152" s="25">
+      <c r="T152" s="24">
         <v>2</v>
       </c>
       <c r="U152" s="19">
@@ -13685,7 +13677,7 @@
       <c r="AA152" s="19">
         <v>100</v>
       </c>
-      <c r="AB152" s="28" t="s">
+      <c r="AB152" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13723,13 +13715,13 @@
       <c r="L153" s="19">
         <v>1.2</v>
       </c>
-      <c r="M153" s="24">
+      <c r="M153" s="19">
         <v>8</v>
       </c>
       <c r="N153" s="18">
         <v>260</v>
       </c>
-      <c r="O153" s="25">
+      <c r="O153" s="24">
         <v>26</v>
       </c>
       <c r="P153" s="18">
@@ -13738,13 +13730,13 @@
       <c r="Q153" s="19">
         <v>2</v>
       </c>
-      <c r="R153" s="25">
+      <c r="R153" s="24">
         <v>2</v>
       </c>
-      <c r="S153" s="25">
+      <c r="S153" s="24">
         <v>2</v>
       </c>
-      <c r="T153" s="25">
+      <c r="T153" s="24">
         <v>6</v>
       </c>
       <c r="U153" s="19">
@@ -13768,7 +13760,7 @@
       <c r="AA153" s="19">
         <v>120</v>
       </c>
-      <c r="AB153" s="28" t="s">
+      <c r="AB153" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13806,13 +13798,13 @@
       <c r="L154" s="19">
         <v>1.5</v>
       </c>
-      <c r="M154" s="24">
+      <c r="M154" s="19">
         <v>15</v>
       </c>
       <c r="N154" s="18">
-        <v>220</v>
-      </c>
-      <c r="O154" s="25">
+        <v>280</v>
+      </c>
+      <c r="O154" s="24">
         <v>28</v>
       </c>
       <c r="P154" s="18">
@@ -13821,13 +13813,13 @@
       <c r="Q154" s="19">
         <v>2</v>
       </c>
-      <c r="R154" s="25">
+      <c r="R154" s="24">
         <v>4</v>
       </c>
-      <c r="S154" s="25">
+      <c r="S154" s="24">
         <v>2</v>
       </c>
-      <c r="T154" s="25">
+      <c r="T154" s="24">
         <v>4</v>
       </c>
       <c r="U154" s="19">
@@ -13851,7 +13843,7 @@
       <c r="AA154" s="19">
         <v>110</v>
       </c>
-      <c r="AB154" s="28" t="s">
+      <c r="AB154" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13889,13 +13881,13 @@
       <c r="L155" s="19">
         <v>1.9</v>
       </c>
-      <c r="M155" s="24">
+      <c r="M155" s="19">
         <v>20</v>
       </c>
       <c r="N155" s="18">
-        <v>180</v>
-      </c>
-      <c r="O155" s="25">
+        <v>300</v>
+      </c>
+      <c r="O155" s="24">
         <v>30</v>
       </c>
       <c r="P155" s="18">
@@ -13904,13 +13896,13 @@
       <c r="Q155" s="19">
         <v>2</v>
       </c>
-      <c r="R155" s="25">
+      <c r="R155" s="24">
         <v>6</v>
       </c>
-      <c r="S155" s="25">
+      <c r="S155" s="24">
         <v>2</v>
       </c>
-      <c r="T155" s="25">
+      <c r="T155" s="24">
         <v>4</v>
       </c>
       <c r="U155" s="19">
@@ -13934,7 +13926,7 @@
       <c r="AA155" s="19">
         <v>120</v>
       </c>
-      <c r="AB155" s="28" t="s">
+      <c r="AB155" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13972,13 +13964,13 @@
       <c r="L156" s="19">
         <v>1.2</v>
       </c>
-      <c r="M156" s="24">
+      <c r="M156" s="19">
         <v>10</v>
       </c>
       <c r="N156" s="18">
-        <v>170</v>
-      </c>
-      <c r="O156" s="25">
+        <v>240</v>
+      </c>
+      <c r="O156" s="24">
         <v>25</v>
       </c>
       <c r="P156" s="18">
@@ -13987,13 +13979,13 @@
       <c r="Q156" s="19">
         <v>5</v>
       </c>
-      <c r="R156" s="25">
+      <c r="R156" s="24">
         <v>3</v>
       </c>
-      <c r="S156" s="25">
+      <c r="S156" s="24">
         <v>90</v>
       </c>
-      <c r="T156" s="25">
+      <c r="T156" s="24">
         <v>6</v>
       </c>
       <c r="U156" s="19">
@@ -14017,7 +14009,7 @@
       <c r="AA156" s="19">
         <v>110</v>
       </c>
-      <c r="AB156" s="28" t="s">
+      <c r="AB156" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14055,13 +14047,13 @@
       <c r="L157" s="19">
         <v>1</v>
       </c>
-      <c r="M157" s="24">
+      <c r="M157" s="19">
         <v>10</v>
       </c>
       <c r="N157" s="18">
         <v>300</v>
       </c>
-      <c r="O157" s="25">
+      <c r="O157" s="24">
         <v>12</v>
       </c>
       <c r="P157" s="18">
@@ -14070,13 +14062,13 @@
       <c r="Q157" s="19">
         <v>3</v>
       </c>
-      <c r="R157" s="25">
+      <c r="R157" s="24">
         <v>4</v>
       </c>
-      <c r="S157" s="25">
+      <c r="S157" s="24">
         <v>25</v>
       </c>
-      <c r="T157" s="25">
+      <c r="T157" s="24">
         <v>15</v>
       </c>
       <c r="U157" s="19">
@@ -14100,7 +14092,7 @@
       <c r="AA157" s="19">
         <v>240</v>
       </c>
-      <c r="AB157" s="28" t="s">
+      <c r="AB157" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14138,13 +14130,13 @@
       <c r="L158" s="19">
         <v>1.6</v>
       </c>
-      <c r="M158" s="24">
+      <c r="M158" s="19">
         <v>15</v>
       </c>
       <c r="N158" s="18">
         <v>380</v>
       </c>
-      <c r="O158" s="25">
+      <c r="O158" s="24">
         <v>14</v>
       </c>
       <c r="P158" s="18">
@@ -14153,13 +14145,13 @@
       <c r="Q158" s="19">
         <v>3</v>
       </c>
-      <c r="R158" s="25">
+      <c r="R158" s="24">
         <v>6</v>
       </c>
-      <c r="S158" s="25">
+      <c r="S158" s="24">
         <v>20</v>
       </c>
-      <c r="T158" s="25">
+      <c r="T158" s="24">
         <v>10</v>
       </c>
       <c r="U158" s="19">
@@ -14183,7 +14175,7 @@
       <c r="AA158" s="19">
         <v>250</v>
       </c>
-      <c r="AB158" s="28" t="s">
+      <c r="AB158" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14221,13 +14213,13 @@
       <c r="L159" s="19">
         <v>1.2</v>
       </c>
-      <c r="M159" s="24">
+      <c r="M159" s="19">
         <v>12</v>
       </c>
       <c r="N159" s="18">
         <v>360</v>
       </c>
-      <c r="O159" s="25">
+      <c r="O159" s="24">
         <v>12</v>
       </c>
       <c r="P159" s="18">
@@ -14236,13 +14228,13 @@
       <c r="Q159" s="19">
         <v>2</v>
       </c>
-      <c r="R159" s="25">
+      <c r="R159" s="24">
         <v>5</v>
       </c>
-      <c r="S159" s="25">
+      <c r="S159" s="24">
         <v>15</v>
       </c>
-      <c r="T159" s="25">
+      <c r="T159" s="24">
         <v>6</v>
       </c>
       <c r="U159" s="19">
@@ -14266,7 +14258,7 @@
       <c r="AA159" s="19">
         <v>230</v>
       </c>
-      <c r="AB159" s="28" t="s">
+      <c r="AB159" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14304,13 +14296,13 @@
       <c r="L160" s="19">
         <v>1</v>
       </c>
-      <c r="M160" s="24">
+      <c r="M160" s="19">
         <v>10</v>
       </c>
       <c r="N160" s="18">
         <v>340</v>
       </c>
-      <c r="O160" s="25">
+      <c r="O160" s="24">
         <v>18</v>
       </c>
       <c r="P160" s="18">
@@ -14319,13 +14311,13 @@
       <c r="Q160" s="19">
         <v>3</v>
       </c>
-      <c r="R160" s="25">
+      <c r="R160" s="24">
         <v>4</v>
       </c>
-      <c r="S160" s="25">
+      <c r="S160" s="24">
         <v>10</v>
       </c>
-      <c r="T160" s="25">
+      <c r="T160" s="24">
         <v>10</v>
       </c>
       <c r="U160" s="19">
@@ -14349,7 +14341,7 @@
       <c r="AA160" s="19">
         <v>250</v>
       </c>
-      <c r="AB160" s="28" t="s">
+      <c r="AB160" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14387,13 +14379,13 @@
       <c r="L161" s="19">
         <v>1.2</v>
       </c>
-      <c r="M161" s="24">
+      <c r="M161" s="19">
         <v>10</v>
       </c>
       <c r="N161" s="18">
-        <v>150</v>
-      </c>
-      <c r="O161" s="25">
+        <v>330</v>
+      </c>
+      <c r="O161" s="24">
         <v>15</v>
       </c>
       <c r="P161" s="18">
@@ -14402,13 +14394,13 @@
       <c r="Q161" s="19">
         <v>2</v>
       </c>
-      <c r="R161" s="25">
+      <c r="R161" s="24">
         <v>5</v>
       </c>
-      <c r="S161" s="25">
+      <c r="S161" s="24">
         <v>30</v>
       </c>
-      <c r="T161" s="25">
+      <c r="T161" s="24">
         <v>20</v>
       </c>
       <c r="U161" s="19">
@@ -14432,7 +14424,7 @@
       <c r="AA161" s="19">
         <v>240</v>
       </c>
-      <c r="AB161" s="28" t="s">
+      <c r="AB161" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14470,13 +14462,13 @@
       <c r="L162" s="19">
         <v>1</v>
       </c>
-      <c r="M162" s="24">
+      <c r="M162" s="19">
         <v>8</v>
       </c>
       <c r="N162" s="18">
-        <v>210</v>
-      </c>
-      <c r="O162" s="25">
+        <v>310</v>
+      </c>
+      <c r="O162" s="24">
         <v>14</v>
       </c>
       <c r="P162" s="18">
@@ -14485,13 +14477,13 @@
       <c r="Q162" s="19">
         <v>2</v>
       </c>
-      <c r="R162" s="25">
+      <c r="R162" s="24">
         <v>4</v>
       </c>
-      <c r="S162" s="25">
+      <c r="S162" s="24">
         <v>20</v>
       </c>
-      <c r="T162" s="25">
+      <c r="T162" s="24">
         <v>15</v>
       </c>
       <c r="U162" s="19">
@@ -14515,7 +14507,7 @@
       <c r="AA162" s="19">
         <v>220</v>
       </c>
-      <c r="AB162" s="28" t="s">
+      <c r="AB162" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14553,13 +14545,13 @@
       <c r="L163" s="19">
         <v>0.5</v>
       </c>
-      <c r="M163" s="24">
+      <c r="M163" s="19">
         <v>5</v>
       </c>
       <c r="N163" s="18">
         <v>420</v>
       </c>
-      <c r="O163" s="25">
+      <c r="O163" s="24">
         <v>24</v>
       </c>
       <c r="P163" s="18">
@@ -14568,13 +14560,13 @@
       <c r="Q163" s="19">
         <v>3</v>
       </c>
-      <c r="R163" s="25">
+      <c r="R163" s="24">
         <v>9</v>
       </c>
-      <c r="S163" s="25">
+      <c r="S163" s="24">
         <v>80</v>
       </c>
-      <c r="T163" s="25">
+      <c r="T163" s="24">
         <v>15</v>
       </c>
       <c r="U163" s="19">
@@ -14598,7 +14590,7 @@
       <c r="AA163" s="19">
         <v>245</v>
       </c>
-      <c r="AB163" s="28" t="s">
+      <c r="AB163" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14636,13 +14628,13 @@
       <c r="L164" s="19">
         <v>0.6</v>
       </c>
-      <c r="M164" s="24">
+      <c r="M164" s="19">
         <v>35</v>
       </c>
       <c r="N164" s="18">
         <v>500</v>
       </c>
-      <c r="O164" s="25">
+      <c r="O164" s="24">
         <v>16</v>
       </c>
       <c r="P164" s="18">
@@ -14651,13 +14643,13 @@
       <c r="Q164" s="19">
         <v>1</v>
       </c>
-      <c r="R164" s="25">
+      <c r="R164" s="24">
         <v>7</v>
       </c>
-      <c r="S164" s="25">
+      <c r="S164" s="24">
         <v>10</v>
       </c>
-      <c r="T164" s="25">
+      <c r="T164" s="24">
         <v>4</v>
       </c>
       <c r="U164" s="19">
@@ -14681,7 +14673,7 @@
       <c r="AA164" s="19">
         <v>150</v>
       </c>
-      <c r="AB164" s="28" t="s">
+      <c r="AB164" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14719,13 +14711,13 @@
       <c r="L165" s="19">
         <v>1</v>
       </c>
-      <c r="M165" s="24">
+      <c r="M165" s="19">
         <v>5</v>
       </c>
       <c r="N165" s="18">
         <v>580</v>
       </c>
-      <c r="O165" s="25">
+      <c r="O165" s="24">
         <v>28</v>
       </c>
       <c r="P165" s="18">
@@ -14734,13 +14726,13 @@
       <c r="Q165" s="19">
         <v>3</v>
       </c>
-      <c r="R165" s="25">
+      <c r="R165" s="24">
         <v>10</v>
       </c>
-      <c r="S165" s="25">
+      <c r="S165" s="24">
         <v>6</v>
       </c>
-      <c r="T165" s="25">
+      <c r="T165" s="24">
         <v>6</v>
       </c>
       <c r="U165" s="19">
@@ -14764,7 +14756,7 @@
       <c r="AA165" s="19">
         <v>300</v>
       </c>
-      <c r="AB165" s="28" t="s">
+      <c r="AB165" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14802,13 +14794,13 @@
       <c r="L166" s="19">
         <v>0.8</v>
       </c>
-      <c r="M166" s="24">
+      <c r="M166" s="19">
         <v>5</v>
       </c>
       <c r="N166" s="18">
-        <v>450</v>
-      </c>
-      <c r="O166" s="25">
+        <v>550</v>
+      </c>
+      <c r="O166" s="24">
         <v>22</v>
       </c>
       <c r="P166" s="18">
@@ -14817,13 +14809,13 @@
       <c r="Q166" s="19">
         <v>2</v>
       </c>
-      <c r="R166" s="25">
+      <c r="R166" s="24">
         <v>6</v>
       </c>
-      <c r="S166" s="25">
+      <c r="S166" s="24">
         <v>10</v>
       </c>
-      <c r="T166" s="25">
+      <c r="T166" s="24">
         <v>10</v>
       </c>
       <c r="U166" s="19">
@@ -14847,7 +14839,7 @@
       <c r="AA166" s="19">
         <v>280</v>
       </c>
-      <c r="AB166" s="28" t="s">
+      <c r="AB166" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14885,13 +14877,13 @@
       <c r="L167" s="19">
         <v>2</v>
       </c>
-      <c r="M167" s="24">
+      <c r="M167" s="19">
         <v>35</v>
       </c>
       <c r="N167" s="18">
         <v>180</v>
       </c>
-      <c r="O167" s="25">
+      <c r="O167" s="24">
         <v>24</v>
       </c>
       <c r="P167" s="18">
@@ -14900,13 +14892,13 @@
       <c r="Q167" s="19">
         <v>18</v>
       </c>
-      <c r="R167" s="25">
+      <c r="R167" s="24">
         <v>3</v>
       </c>
-      <c r="S167" s="25">
+      <c r="S167" s="24">
         <v>2</v>
       </c>
-      <c r="T167" s="25">
+      <c r="T167" s="24">
         <v>2</v>
       </c>
       <c r="U167" s="19">
@@ -14930,7 +14922,7 @@
       <c r="AA167" s="19">
         <v>100</v>
       </c>
-      <c r="AB167" s="28" t="s">
+      <c r="AB167" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14968,13 +14960,13 @@
       <c r="L168" s="19">
         <v>1.8</v>
       </c>
-      <c r="M168" s="24">
+      <c r="M168" s="19">
         <v>30</v>
       </c>
       <c r="N168" s="18">
         <v>160</v>
       </c>
-      <c r="O168" s="25">
+      <c r="O168" s="24">
         <v>26</v>
       </c>
       <c r="P168" s="18">
@@ -14983,13 +14975,13 @@
       <c r="Q168" s="19">
         <v>20</v>
       </c>
-      <c r="R168" s="25">
+      <c r="R168" s="24">
         <v>3</v>
       </c>
-      <c r="S168" s="25">
+      <c r="S168" s="24">
         <v>2</v>
       </c>
-      <c r="T168" s="25">
+      <c r="T168" s="24">
         <v>2</v>
       </c>
       <c r="U168" s="19">
@@ -15013,7 +15005,7 @@
       <c r="AA168" s="19">
         <v>95</v>
       </c>
-      <c r="AB168" s="28" t="s">
+      <c r="AB168" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -15051,13 +15043,13 @@
       <c r="L169" s="19">
         <v>2.5</v>
       </c>
-      <c r="M169" s="24">
+      <c r="M169" s="19">
         <v>20</v>
       </c>
       <c r="N169" s="18">
         <v>280</v>
       </c>
-      <c r="O169" s="25">
+      <c r="O169" s="24">
         <v>36</v>
       </c>
       <c r="P169" s="18">
@@ -15066,13 +15058,13 @@
       <c r="Q169" s="19">
         <v>16</v>
       </c>
-      <c r="R169" s="25">
+      <c r="R169" s="24">
         <v>4</v>
       </c>
-      <c r="S169" s="25">
+      <c r="S169" s="24">
         <v>10</v>
       </c>
-      <c r="T169" s="25">
+      <c r="T169" s="24">
         <v>8</v>
       </c>
       <c r="U169" s="19">
@@ -15096,7 +15088,7 @@
       <c r="AA169" s="19">
         <v>125</v>
       </c>
-      <c r="AB169" s="28" t="s">
+      <c r="AB169" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -15134,13 +15126,13 @@
       <c r="L170" s="19">
         <v>4</v>
       </c>
-      <c r="M170" s="24">
+      <c r="M170" s="19">
         <v>40</v>
       </c>
       <c r="N170" s="18">
-        <v>230</v>
-      </c>
-      <c r="O170" s="25">
+        <v>330</v>
+      </c>
+      <c r="O170" s="24">
         <v>40</v>
       </c>
       <c r="P170" s="18">
@@ -15149,13 +15141,13 @@
       <c r="Q170" s="19">
         <v>22</v>
       </c>
-      <c r="R170" s="25">
+      <c r="R170" s="24">
         <v>5</v>
       </c>
-      <c r="S170" s="25">
+      <c r="S170" s="24">
         <v>8</v>
       </c>
-      <c r="T170" s="25">
+      <c r="T170" s="24">
         <v>2</v>
       </c>
       <c r="U170" s="19">
@@ -15179,7 +15171,7 @@
       <c r="AA170" s="19">
         <v>110</v>
       </c>
-      <c r="AB170" s="28" t="s">
+      <c r="AB170" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -15213,24 +15205,24 @@
       <c r="L171">
         <v>2.2</v>
       </c>
-      <c r="M171" s="26">
+      <c r="M171">
         <v>79</v>
       </c>
       <c r="N171" s="20">
-        <v>538</v>
-      </c>
-      <c r="O171" s="27">
+        <v>738</v>
+      </c>
+      <c r="O171" s="25">
         <v>38</v>
       </c>
       <c r="P171" s="20">
         <v>3.6</v>
       </c>
       <c r="Q171"/>
-      <c r="R171" s="27">
+      <c r="R171" s="25">
         <v>11</v>
       </c>
-      <c r="S171" s="27"/>
-      <c r="T171" s="27"/>
+      <c r="S171" s="25"/>
+      <c r="T171" s="25"/>
       <c r="U171">
         <v>323</v>
       </c>
@@ -15276,24 +15268,24 @@
       <c r="L172">
         <v>3.6</v>
       </c>
-      <c r="M172" s="26">
+      <c r="M172">
         <v>35</v>
       </c>
       <c r="N172" s="20">
-        <v>755</v>
-      </c>
-      <c r="O172" s="27">
+        <v>955</v>
+      </c>
+      <c r="O172" s="25">
         <v>43</v>
       </c>
       <c r="P172" s="20">
         <v>2.3</v>
       </c>
       <c r="Q172"/>
-      <c r="R172" s="27">
+      <c r="R172" s="25">
         <v>7.3</v>
       </c>
-      <c r="S172" s="27"/>
-      <c r="T172" s="27"/>
+      <c r="S172" s="25"/>
+      <c r="T172" s="25"/>
       <c r="U172">
         <v>505</v>
       </c>
@@ -15339,24 +15331,24 @@
       <c r="L173">
         <v>3</v>
       </c>
-      <c r="M173" s="26">
+      <c r="M173">
         <v>82</v>
       </c>
       <c r="N173" s="20">
         <v>164</v>
       </c>
-      <c r="O173" s="27">
+      <c r="O173" s="25">
         <v>24</v>
       </c>
       <c r="P173" s="20">
         <v>2.1</v>
       </c>
       <c r="Q173"/>
-      <c r="R173" s="27">
+      <c r="R173" s="25">
         <v>4</v>
       </c>
-      <c r="S173" s="27"/>
-      <c r="T173" s="27"/>
+      <c r="S173" s="25"/>
+      <c r="T173" s="25"/>
       <c r="U173">
         <v>45</v>
       </c>
@@ -15402,24 +15394,24 @@
       <c r="L174">
         <v>2.3</v>
       </c>
-      <c r="M174" s="26">
+      <c r="M174">
         <v>16</v>
       </c>
       <c r="N174" s="20">
         <v>171</v>
       </c>
-      <c r="O174" s="27">
+      <c r="O174" s="25">
         <v>28</v>
       </c>
       <c r="P174" s="20">
         <v>0.7</v>
       </c>
       <c r="Q174"/>
-      <c r="R174" s="27">
+      <c r="R174" s="25">
         <v>1.9</v>
       </c>
-      <c r="S174" s="27"/>
-      <c r="T174" s="27"/>
+      <c r="S174" s="25"/>
+      <c r="T174" s="25"/>
       <c r="U174">
         <v>25</v>
       </c>
@@ -15465,24 +15457,24 @@
       <c r="L175">
         <v>6</v>
       </c>
-      <c r="M175" s="26">
+      <c r="M175">
         <v>212</v>
       </c>
       <c r="N175" s="20">
         <v>246</v>
       </c>
-      <c r="O175" s="27">
+      <c r="O175" s="25">
         <v>22</v>
       </c>
       <c r="P175" s="20">
         <v>2</v>
       </c>
       <c r="Q175"/>
-      <c r="R175" s="27">
+      <c r="R175" s="25">
         <v>12</v>
       </c>
-      <c r="S175" s="27"/>
-      <c r="T175" s="27"/>
+      <c r="S175" s="25"/>
+      <c r="T175" s="25"/>
       <c r="U175">
         <v>121</v>
       </c>
@@ -15528,24 +15520,24 @@
       <c r="L176">
         <v>17</v>
       </c>
-      <c r="M176" s="26">
-        <v>455</v>
+      <c r="M176">
+        <v>755</v>
       </c>
       <c r="N176" s="20">
-        <v>1546</v>
-      </c>
-      <c r="O176" s="27">
+        <v>1946</v>
+      </c>
+      <c r="O176" s="25">
         <v>30</v>
       </c>
       <c r="P176" s="20">
         <v>2.2</v>
       </c>
       <c r="Q176"/>
-      <c r="R176" s="27">
+      <c r="R176" s="25">
         <v>30</v>
       </c>
-      <c r="S176" s="27"/>
-      <c r="T176" s="27"/>
+      <c r="S176" s="25"/>
+      <c r="T176" s="25"/>
       <c r="U176">
         <v>209</v>
       </c>
@@ -15591,24 +15583,24 @@
       <c r="L177">
         <v>8.1</v>
       </c>
-      <c r="M177" s="26">
+      <c r="M177">
         <v>89</v>
       </c>
       <c r="N177" s="20">
-        <v>581</v>
-      </c>
-      <c r="O177" s="27">
+        <v>681</v>
+      </c>
+      <c r="O177" s="25">
         <v>22</v>
       </c>
       <c r="P177" s="20">
         <v>4.2</v>
       </c>
       <c r="Q177"/>
-      <c r="R177" s="27">
+      <c r="R177" s="25">
         <v>18</v>
       </c>
-      <c r="S177" s="27"/>
-      <c r="T177" s="27"/>
+      <c r="S177" s="25"/>
+      <c r="T177" s="25"/>
       <c r="U177">
         <v>87</v>
       </c>
@@ -15654,24 +15646,24 @@
       <c r="L178">
         <v>7.5</v>
       </c>
-      <c r="M178" s="26">
-        <v>186</v>
+      <c r="M178">
+        <v>216</v>
       </c>
       <c r="N178" s="20">
-        <v>351</v>
-      </c>
-      <c r="O178" s="27">
+        <v>551</v>
+      </c>
+      <c r="O178" s="25">
         <v>29</v>
       </c>
       <c r="P178" s="20">
         <v>0</v>
       </c>
       <c r="Q178"/>
-      <c r="R178" s="27">
+      <c r="R178" s="25">
         <v>13</v>
       </c>
-      <c r="S178" s="27"/>
-      <c r="T178" s="27"/>
+      <c r="S178" s="25"/>
+      <c r="T178" s="25"/>
       <c r="U178">
         <v>244</v>
       </c>
@@ -15717,24 +15709,24 @@
       <c r="L179">
         <v>5.6</v>
       </c>
-      <c r="M179" s="26">
-        <v>128</v>
+      <c r="M179">
+        <v>158</v>
       </c>
       <c r="N179" s="20">
         <v>1286</v>
       </c>
-      <c r="O179" s="27">
+      <c r="O179" s="25">
         <v>15</v>
       </c>
       <c r="P179" s="20">
         <v>1.2</v>
       </c>
       <c r="Q179"/>
-      <c r="R179" s="27">
+      <c r="R179" s="25">
         <v>23</v>
       </c>
-      <c r="S179" s="27"/>
-      <c r="T179" s="27"/>
+      <c r="S179" s="25"/>
+      <c r="T179" s="25"/>
       <c r="U179">
         <v>150</v>
       </c>
@@ -15780,24 +15772,24 @@
       <c r="L180">
         <v>4.7</v>
       </c>
-      <c r="M180" s="26">
+      <c r="M180">
         <v>12</v>
       </c>
       <c r="N180" s="20">
         <v>381</v>
       </c>
-      <c r="O180" s="27">
+      <c r="O180" s="25">
         <v>1.9</v>
       </c>
       <c r="P180" s="20">
         <v>1</v>
       </c>
       <c r="Q180"/>
-      <c r="R180" s="27">
+      <c r="R180" s="25">
         <v>7.7</v>
       </c>
-      <c r="S180" s="27"/>
-      <c r="T180" s="27"/>
+      <c r="S180" s="25"/>
+      <c r="T180" s="25"/>
       <c r="U180">
         <v>8.5</v>
       </c>
@@ -15843,24 +15835,24 @@
       <c r="L181">
         <v>7.5</v>
       </c>
-      <c r="M181" s="26">
+      <c r="M181">
         <v>115</v>
       </c>
       <c r="N181" s="20">
         <v>300</v>
       </c>
-      <c r="O181" s="27">
+      <c r="O181" s="25">
         <v>21</v>
       </c>
       <c r="P181" s="20">
         <v>1.3</v>
       </c>
       <c r="Q181"/>
-      <c r="R181" s="27">
+      <c r="R181" s="25">
         <v>25</v>
       </c>
-      <c r="S181" s="27"/>
-      <c r="T181" s="27"/>
+      <c r="S181" s="25"/>
+      <c r="T181" s="25"/>
       <c r="U181">
         <v>69</v>
       </c>
@@ -15906,24 +15898,24 @@
       <c r="L182">
         <v>5.7</v>
       </c>
-      <c r="M182" s="26">
+      <c r="M182">
         <v>46</v>
       </c>
       <c r="N182" s="20">
         <v>682</v>
       </c>
-      <c r="O182" s="27">
+      <c r="O182" s="25">
         <v>24</v>
       </c>
       <c r="P182" s="20">
         <v>2</v>
       </c>
       <c r="Q182"/>
-      <c r="R182" s="27">
+      <c r="R182" s="25">
         <v>17</v>
       </c>
-      <c r="S182" s="27"/>
-      <c r="T182" s="27"/>
+      <c r="S182" s="25"/>
+      <c r="T182" s="25"/>
       <c r="U182">
         <v>155</v>
       </c>
@@ -15969,24 +15961,24 @@
       <c r="L183">
         <v>4.7</v>
       </c>
-      <c r="M183" s="26">
+      <c r="M183">
         <v>84</v>
       </c>
       <c r="N183" s="20">
         <v>243</v>
       </c>
-      <c r="O183" s="27">
+      <c r="O183" s="25">
         <v>11</v>
       </c>
       <c r="P183" s="20">
         <v>2.9</v>
       </c>
       <c r="Q183"/>
-      <c r="R183" s="27">
+      <c r="R183" s="25">
         <v>29</v>
       </c>
-      <c r="S183" s="27"/>
-      <c r="T183" s="27"/>
+      <c r="S183" s="25"/>
+      <c r="T183" s="25"/>
       <c r="U183">
         <v>100</v>
       </c>
@@ -16032,24 +16024,24 @@
       <c r="L184">
         <v>11</v>
       </c>
-      <c r="M184" s="26">
+      <c r="M184">
         <v>166</v>
       </c>
       <c r="N184" s="20">
-        <v>1376</v>
-      </c>
-      <c r="O184" s="27">
+        <v>1576</v>
+      </c>
+      <c r="O184" s="25">
         <v>35</v>
       </c>
       <c r="P184" s="20">
         <v>3.9</v>
       </c>
       <c r="Q184"/>
-      <c r="R184" s="27">
+      <c r="R184" s="25">
         <v>44</v>
       </c>
-      <c r="S184" s="27"/>
-      <c r="T184" s="27"/>
+      <c r="S184" s="25"/>
+      <c r="T184" s="25"/>
       <c r="U184">
         <v>527</v>
       </c>
@@ -16095,24 +16087,24 @@
       <c r="L185">
         <v>25</v>
       </c>
-      <c r="M185" s="26">
-        <v>238</v>
+      <c r="M185">
+        <v>278</v>
       </c>
       <c r="N185" s="20">
-        <v>1042</v>
-      </c>
-      <c r="O185" s="27">
+        <v>1742</v>
+      </c>
+      <c r="O185" s="25">
         <v>132</v>
       </c>
       <c r="P185" s="20">
         <v>11</v>
       </c>
       <c r="Q185"/>
-      <c r="R185" s="27">
+      <c r="R185" s="25">
         <v>102</v>
       </c>
-      <c r="S185" s="27"/>
-      <c r="T185" s="27"/>
+      <c r="S185" s="25"/>
+      <c r="T185" s="25"/>
       <c r="U185">
         <v>389</v>
       </c>
@@ -16158,24 +16150,24 @@
       <c r="L186">
         <v>6.7</v>
       </c>
-      <c r="M186" s="26">
+      <c r="M186">
         <v>90</v>
       </c>
       <c r="N186" s="20">
         <v>41</v>
       </c>
-      <c r="O186" s="27">
+      <c r="O186" s="25">
         <v>0</v>
       </c>
       <c r="P186" s="20">
         <v>0</v>
       </c>
       <c r="Q186"/>
-      <c r="R186" s="27">
+      <c r="R186" s="25">
         <v>24</v>
       </c>
-      <c r="S186" s="27"/>
-      <c r="T186" s="27"/>
+      <c r="S186" s="25"/>
+      <c r="T186" s="25"/>
       <c r="U186">
         <v>14</v>
       </c>
@@ -16221,24 +16213,24 @@
       <c r="L187">
         <v>16</v>
       </c>
-      <c r="M187" s="26">
+      <c r="M187">
         <v>189</v>
       </c>
       <c r="N187" s="20">
         <v>258</v>
       </c>
-      <c r="O187" s="27">
+      <c r="O187" s="25">
         <v>24</v>
       </c>
       <c r="P187" s="20">
         <v>4.8</v>
       </c>
       <c r="Q187"/>
-      <c r="R187" s="27">
+      <c r="R187" s="25">
         <v>59</v>
       </c>
-      <c r="S187" s="27"/>
-      <c r="T187" s="27"/>
+      <c r="S187" s="25"/>
+      <c r="T187" s="25"/>
       <c r="U187">
         <v>94</v>
       </c>
@@ -16284,24 +16276,24 @@
       <c r="L188">
         <v>11</v>
       </c>
-      <c r="M188" s="26">
+      <c r="M188">
         <v>86</v>
       </c>
       <c r="N188" s="20">
         <v>256</v>
       </c>
-      <c r="O188" s="27">
+      <c r="O188" s="25">
         <v>17</v>
       </c>
       <c r="P188" s="20">
         <v>0.7</v>
       </c>
       <c r="Q188"/>
-      <c r="R188" s="27">
+      <c r="R188" s="25">
         <v>18</v>
       </c>
-      <c r="S188" s="27"/>
-      <c r="T188" s="27"/>
+      <c r="S188" s="25"/>
+      <c r="T188" s="25"/>
       <c r="U188">
         <v>19</v>
       </c>
@@ -16347,24 +16339,24 @@
       <c r="L189">
         <v>8.5</v>
       </c>
-      <c r="M189" s="26">
+      <c r="M189">
         <v>96</v>
       </c>
       <c r="N189" s="20">
-        <v>573</v>
-      </c>
-      <c r="O189" s="27">
+        <v>873</v>
+      </c>
+      <c r="O189" s="25">
         <v>8.5</v>
       </c>
       <c r="P189" s="20">
         <v>2</v>
       </c>
       <c r="Q189"/>
-      <c r="R189" s="27">
+      <c r="R189" s="25">
         <v>28</v>
       </c>
-      <c r="S189" s="27"/>
-      <c r="T189" s="27"/>
+      <c r="S189" s="25"/>
+      <c r="T189" s="25"/>
       <c r="U189">
         <v>66</v>
       </c>
@@ -16410,24 +16402,24 @@
       <c r="L190">
         <v>4.6</v>
       </c>
-      <c r="M190" s="26">
+      <c r="M190">
         <v>65</v>
       </c>
       <c r="N190" s="20">
         <v>62</v>
       </c>
-      <c r="O190" s="27">
+      <c r="O190" s="25">
         <v>0</v>
       </c>
       <c r="P190" s="20">
         <v>0</v>
       </c>
       <c r="Q190"/>
-      <c r="R190" s="27">
+      <c r="R190" s="25">
         <v>20</v>
       </c>
-      <c r="S190" s="27"/>
-      <c r="T190" s="27"/>
+      <c r="S190" s="25"/>
+      <c r="T190" s="25"/>
       <c r="U190">
         <v>10</v>
       </c>
@@ -16473,24 +16465,24 @@
       <c r="L191">
         <v>7.7</v>
       </c>
-      <c r="M191" s="26">
+      <c r="M191">
         <v>86</v>
       </c>
       <c r="N191" s="20">
-        <v>452</v>
-      </c>
-      <c r="O191" s="27">
+        <v>652</v>
+      </c>
+      <c r="O191" s="25">
         <v>17</v>
       </c>
       <c r="P191" s="20">
         <v>1.4</v>
       </c>
       <c r="Q191"/>
-      <c r="R191" s="27">
+      <c r="R191" s="25">
         <v>26</v>
       </c>
-      <c r="S191" s="27"/>
-      <c r="T191" s="27"/>
+      <c r="S191" s="25"/>
+      <c r="T191" s="25"/>
       <c r="U191">
         <v>169</v>
       </c>
@@ -16536,24 +16528,24 @@
       <c r="L192">
         <v>2.9</v>
       </c>
-      <c r="M192" s="26">
+      <c r="M192">
         <v>74</v>
       </c>
       <c r="N192" s="20">
         <v>73</v>
       </c>
-      <c r="O192" s="27">
+      <c r="O192" s="25">
         <v>7.5</v>
       </c>
       <c r="P192" s="20">
         <v>1.5</v>
       </c>
       <c r="Q192"/>
-      <c r="R192" s="27">
+      <c r="R192" s="25">
         <v>28</v>
       </c>
-      <c r="S192" s="27"/>
-      <c r="T192" s="27"/>
+      <c r="S192" s="25"/>
+      <c r="T192" s="25"/>
       <c r="U192">
         <v>39</v>
       </c>
@@ -16599,24 +16591,24 @@
       <c r="L193">
         <v>3.5</v>
       </c>
-      <c r="M193" s="26">
+      <c r="M193">
         <v>69</v>
       </c>
       <c r="N193" s="20">
         <v>602</v>
       </c>
-      <c r="O193" s="27">
+      <c r="O193" s="25">
         <v>15</v>
       </c>
       <c r="P193" s="20">
         <v>1.1</v>
       </c>
       <c r="Q193"/>
-      <c r="R193" s="27">
+      <c r="R193" s="25">
         <v>15</v>
       </c>
-      <c r="S193" s="27"/>
-      <c r="T193" s="27"/>
+      <c r="S193" s="25"/>
+      <c r="T193" s="25"/>
       <c r="U193">
         <v>55</v>
       </c>
@@ -16662,24 +16654,24 @@
       <c r="L194">
         <v>20</v>
       </c>
-      <c r="M194" s="26">
+      <c r="M194">
         <v>135</v>
       </c>
       <c r="N194" s="20">
-        <v>2819</v>
-      </c>
-      <c r="O194" s="27">
+        <v>4819</v>
+      </c>
+      <c r="O194" s="25">
         <v>4</v>
       </c>
       <c r="P194" s="20">
         <v>0.6</v>
       </c>
       <c r="Q194"/>
-      <c r="R194" s="27">
+      <c r="R194" s="25">
         <v>25</v>
       </c>
-      <c r="S194" s="27"/>
-      <c r="T194" s="27"/>
+      <c r="S194" s="25"/>
+      <c r="T194" s="25"/>
       <c r="U194">
         <v>38</v>
       </c>
@@ -16725,24 +16717,24 @@
       <c r="L195">
         <v>15</v>
       </c>
-      <c r="M195" s="26">
+      <c r="M195">
         <v>63</v>
       </c>
       <c r="N195" s="20">
-        <v>1330</v>
-      </c>
-      <c r="O195" s="27">
+        <v>1630</v>
+      </c>
+      <c r="O195" s="25">
         <v>80</v>
       </c>
       <c r="P195" s="20">
         <v>4.6</v>
       </c>
       <c r="Q195"/>
-      <c r="R195" s="27">
+      <c r="R195" s="25">
         <v>21</v>
       </c>
-      <c r="S195" s="27"/>
-      <c r="T195" s="27"/>
+      <c r="S195" s="25"/>
+      <c r="T195" s="25"/>
       <c r="U195">
         <v>83</v>
       </c>
@@ -16788,24 +16780,24 @@
       <c r="L196">
         <v>3.8</v>
       </c>
-      <c r="M196" s="26">
+      <c r="M196">
         <v>31</v>
       </c>
       <c r="N196" s="20">
         <v>622</v>
       </c>
-      <c r="O196" s="27">
+      <c r="O196" s="25">
         <v>30</v>
       </c>
       <c r="P196" s="20">
         <v>2.2</v>
       </c>
       <c r="Q196"/>
-      <c r="R196" s="27">
+      <c r="R196" s="25">
         <v>14</v>
       </c>
-      <c r="S196" s="27"/>
-      <c r="T196" s="27"/>
+      <c r="S196" s="25"/>
+      <c r="T196" s="25"/>
       <c r="U196">
         <v>129</v>
       </c>
@@ -16851,24 +16843,24 @@
       <c r="L197">
         <v>13</v>
       </c>
-      <c r="M197" s="26">
-        <v>167</v>
+      <c r="M197">
+        <v>267</v>
       </c>
       <c r="N197" s="20">
-        <v>1315</v>
-      </c>
-      <c r="O197" s="27">
+        <v>1715</v>
+      </c>
+      <c r="O197" s="25">
         <v>8</v>
       </c>
       <c r="P197" s="20">
         <v>0.3</v>
       </c>
       <c r="Q197"/>
-      <c r="R197" s="27">
+      <c r="R197" s="25">
         <v>68</v>
       </c>
-      <c r="S197" s="27"/>
-      <c r="T197" s="27"/>
+      <c r="S197" s="25"/>
+      <c r="T197" s="25"/>
       <c r="U197">
         <v>301</v>
       </c>
@@ -16914,24 +16906,24 @@
       <c r="L198">
         <v>9.9</v>
       </c>
-      <c r="M198" s="26">
+      <c r="M198">
         <v>62</v>
       </c>
       <c r="N198" s="20">
         <v>637</v>
       </c>
-      <c r="O198" s="27">
+      <c r="O198" s="25">
         <v>84</v>
       </c>
       <c r="P198" s="20">
         <v>11</v>
       </c>
       <c r="Q198"/>
-      <c r="R198" s="27">
+      <c r="R198" s="25">
         <v>35</v>
       </c>
-      <c r="S198" s="27"/>
-      <c r="T198" s="27"/>
+      <c r="S198" s="25"/>
+      <c r="T198" s="25"/>
       <c r="U198">
         <v>204</v>
       </c>
@@ -16977,24 +16969,24 @@
       <c r="L199">
         <v>18</v>
       </c>
-      <c r="M199" s="26">
-        <v>180</v>
+      <c r="M199">
+        <v>200</v>
       </c>
       <c r="N199" s="20">
-        <v>684</v>
-      </c>
-      <c r="O199" s="27">
+        <v>884</v>
+      </c>
+      <c r="O199" s="25">
         <v>106</v>
       </c>
       <c r="P199" s="20">
         <v>5.9</v>
       </c>
       <c r="Q199"/>
-      <c r="R199" s="27">
+      <c r="R199" s="25">
         <v>28</v>
       </c>
-      <c r="S199" s="27"/>
-      <c r="T199" s="27"/>
+      <c r="S199" s="25"/>
+      <c r="T199" s="25"/>
       <c r="U199">
         <v>295</v>
       </c>
@@ -17040,24 +17032,24 @@
       <c r="L200">
         <v>10</v>
       </c>
-      <c r="M200" s="26">
+      <c r="M200">
         <v>94</v>
       </c>
       <c r="N200" s="20">
         <v>394</v>
       </c>
-      <c r="O200" s="27">
+      <c r="O200" s="25">
         <v>3.9</v>
       </c>
       <c r="P200" s="20">
         <v>0.7</v>
       </c>
       <c r="Q200"/>
-      <c r="R200" s="27">
+      <c r="R200" s="25">
         <v>25</v>
       </c>
-      <c r="S200" s="27"/>
-      <c r="T200" s="27"/>
+      <c r="S200" s="25"/>
+      <c r="T200" s="25"/>
       <c r="U200">
         <v>45</v>
       </c>
@@ -17103,24 +17095,24 @@
       <c r="L201">
         <v>6.6</v>
       </c>
-      <c r="M201" s="26">
+      <c r="M201">
         <v>132</v>
       </c>
       <c r="N201" s="20">
         <v>86</v>
       </c>
-      <c r="O201" s="27">
+      <c r="O201" s="25">
         <v>0</v>
       </c>
       <c r="P201" s="20">
         <v>0</v>
       </c>
       <c r="Q201"/>
-      <c r="R201" s="27">
+      <c r="R201" s="25">
         <v>40</v>
       </c>
-      <c r="S201" s="27"/>
-      <c r="T201" s="27"/>
+      <c r="S201" s="25"/>
+      <c r="T201" s="25"/>
       <c r="U201">
         <v>38</v>
       </c>
@@ -17166,24 +17158,24 @@
       <c r="L202">
         <v>4.1</v>
       </c>
-      <c r="M202" s="26">
+      <c r="M202">
         <v>0</v>
       </c>
       <c r="N202" s="20">
-        <v>717</v>
-      </c>
-      <c r="O202" s="27">
+        <v>917</v>
+      </c>
+      <c r="O202" s="25">
         <v>15</v>
       </c>
       <c r="P202" s="20">
         <v>5</v>
       </c>
       <c r="Q202"/>
-      <c r="R202" s="27">
+      <c r="R202" s="25">
         <v>6</v>
       </c>
-      <c r="S202" s="27"/>
-      <c r="T202" s="27"/>
+      <c r="S202" s="25"/>
+      <c r="T202" s="25"/>
       <c r="U202">
         <v>84</v>
       </c>
@@ -17229,24 +17221,24 @@
       <c r="L203">
         <v>5.3</v>
       </c>
-      <c r="M203" s="26">
+      <c r="M203">
         <v>71</v>
       </c>
       <c r="N203" s="20">
-        <v>344</v>
-      </c>
-      <c r="O203" s="27">
+        <v>444</v>
+      </c>
+      <c r="O203" s="25">
         <v>18</v>
       </c>
       <c r="P203" s="20">
         <v>2.4</v>
       </c>
       <c r="Q203"/>
-      <c r="R203" s="27">
+      <c r="R203" s="25">
         <v>18</v>
       </c>
-      <c r="S203" s="27"/>
-      <c r="T203" s="27"/>
+      <c r="S203" s="25"/>
+      <c r="T203" s="25"/>
       <c r="U203">
         <v>318</v>
       </c>
@@ -17292,24 +17284,24 @@
       <c r="L204">
         <v>3.2</v>
       </c>
-      <c r="M204" s="26">
+      <c r="M204">
         <v>0</v>
       </c>
       <c r="N204" s="20">
         <v>6</v>
       </c>
-      <c r="O204" s="27">
+      <c r="O204" s="25">
         <v>42</v>
       </c>
       <c r="P204" s="20">
         <v>3.3</v>
       </c>
       <c r="Q204"/>
-      <c r="R204" s="27">
+      <c r="R204" s="25">
         <v>5.5</v>
       </c>
-      <c r="S204" s="27"/>
-      <c r="T204" s="27"/>
+      <c r="S204" s="25"/>
+      <c r="T204" s="25"/>
       <c r="U204">
         <v>35</v>
       </c>
@@ -17355,24 +17347,24 @@
       <c r="L205">
         <v>9.6</v>
       </c>
-      <c r="M205" s="26">
-        <v>190</v>
+      <c r="M205">
+        <v>210</v>
       </c>
       <c r="N205" s="20">
         <v>385</v>
       </c>
-      <c r="O205" s="27">
+      <c r="O205" s="25">
         <v>20</v>
       </c>
       <c r="P205" s="20">
         <v>2.6</v>
       </c>
       <c r="Q205"/>
-      <c r="R205" s="27">
+      <c r="R205" s="25">
         <v>16</v>
       </c>
-      <c r="S205" s="27"/>
-      <c r="T205" s="27"/>
+      <c r="S205" s="25"/>
+      <c r="T205" s="25"/>
       <c r="U205">
         <v>289</v>
       </c>
@@ -17418,24 +17410,24 @@
       <c r="L206">
         <v>1.1</v>
       </c>
-      <c r="M206" s="26">
+      <c r="M206">
         <v>4.8</v>
       </c>
       <c r="N206" s="20">
-        <v>919</v>
-      </c>
-      <c r="O206" s="27">
+        <v>1219</v>
+      </c>
+      <c r="O206" s="25">
         <v>26</v>
       </c>
       <c r="P206" s="20">
         <v>3.4</v>
       </c>
       <c r="Q206"/>
-      <c r="R206" s="27">
+      <c r="R206" s="25">
         <v>5.8</v>
       </c>
-      <c r="S206" s="27"/>
-      <c r="T206" s="27"/>
+      <c r="S206" s="25"/>
+      <c r="T206" s="25"/>
       <c r="U206">
         <v>43</v>
       </c>
@@ -17481,24 +17473,24 @@
       <c r="L207">
         <v>4.9</v>
       </c>
-      <c r="M207" s="26">
+      <c r="M207">
         <v>2.5</v>
       </c>
       <c r="N207" s="20">
         <v>223</v>
       </c>
-      <c r="O207" s="27">
+      <c r="O207" s="25">
         <v>70</v>
       </c>
       <c r="P207" s="20">
         <v>21</v>
       </c>
       <c r="Q207"/>
-      <c r="R207" s="27">
+      <c r="R207" s="25">
         <v>22</v>
       </c>
-      <c r="S207" s="27"/>
-      <c r="T207" s="27"/>
+      <c r="S207" s="25"/>
+      <c r="T207" s="25"/>
       <c r="U207">
         <v>237</v>
       </c>
@@ -17544,13 +17536,13 @@
       <c r="L208">
         <v>9.7</v>
       </c>
-      <c r="M208" s="26">
+      <c r="M208">
         <v>121</v>
       </c>
       <c r="N208" s="20">
         <v>494</v>
       </c>
-      <c r="O208" s="27">
+      <c r="O208" s="25">
         <v>30</v>
       </c>
       <c r="P208" s="20">
@@ -17559,11 +17551,11 @@
       <c r="Q208">
         <v>5.4</v>
       </c>
-      <c r="R208" s="27">
+      <c r="R208" s="25">
         <v>29</v>
       </c>
-      <c r="S208" s="27"/>
-      <c r="T208" s="27">
+      <c r="S208" s="25"/>
+      <c r="T208" s="25">
         <v>8.2</v>
       </c>
       <c r="U208">
@@ -17611,24 +17603,24 @@
       <c r="L209">
         <v>5.3</v>
       </c>
-      <c r="M209" s="26">
+      <c r="M209">
         <v>71</v>
       </c>
       <c r="N209" s="20">
-        <v>244</v>
-      </c>
-      <c r="O209" s="27">
+        <v>444</v>
+      </c>
+      <c r="O209" s="25">
         <v>18</v>
       </c>
       <c r="P209" s="20">
         <v>2.4</v>
       </c>
       <c r="Q209"/>
-      <c r="R209" s="27">
+      <c r="R209" s="25">
         <v>18</v>
       </c>
-      <c r="S209" s="27"/>
-      <c r="T209" s="27"/>
+      <c r="S209" s="25"/>
+      <c r="T209" s="25"/>
       <c r="U209">
         <v>318</v>
       </c>
@@ -17674,24 +17666,24 @@
       <c r="L210">
         <v>1.5</v>
       </c>
-      <c r="M210" s="26">
+      <c r="M210">
         <v>0</v>
       </c>
       <c r="N210" s="20">
         <v>312</v>
       </c>
-      <c r="O210" s="27">
+      <c r="O210" s="25">
         <v>37</v>
       </c>
       <c r="P210" s="20">
         <v>2</v>
       </c>
       <c r="Q210"/>
-      <c r="R210" s="27">
+      <c r="R210" s="25">
         <v>4.2</v>
       </c>
-      <c r="S210" s="27"/>
-      <c r="T210" s="27"/>
+      <c r="S210" s="25"/>
+      <c r="T210" s="25"/>
       <c r="U210">
         <v>27</v>
       </c>
@@ -17737,24 +17729,24 @@
       <c r="L211">
         <v>3.3</v>
       </c>
-      <c r="M211" s="26">
+      <c r="M211">
         <v>19</v>
       </c>
       <c r="N211" s="20">
-        <v>241</v>
-      </c>
-      <c r="O211" s="27">
+        <v>341</v>
+      </c>
+      <c r="O211" s="25">
         <v>23</v>
       </c>
       <c r="P211" s="20">
         <v>4.9</v>
       </c>
       <c r="Q211"/>
-      <c r="R211" s="27">
+      <c r="R211" s="25">
         <v>10</v>
       </c>
-      <c r="S211" s="27"/>
-      <c r="T211" s="27"/>
+      <c r="S211" s="25"/>
+      <c r="T211" s="25"/>
       <c r="U211">
         <v>220</v>
       </c>
